--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="工程量计算底稿" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -72,6 +72,9 @@
     <t>分 部</t>
   </si>
   <si>
+    <t>列1</t>
+  </si>
+  <si>
     <t>未区分分部</t>
   </si>
   <si>
@@ -126,19 +129,31 @@
     <t>2+5+6+9+10</t>
   </si>
   <si>
+    <t>12+3</t>
+  </si>
+  <si>
     <t>球形吸顶灯</t>
   </si>
   <si>
     <t>23+5+8</t>
   </si>
   <si>
-    <t>3+6+8+5+3+5</t>
-  </si>
-  <si>
     <t>5+8+9+6+3</t>
   </si>
   <si>
     <t>开关</t>
+  </si>
+  <si>
+    <t>单联开关</t>
+  </si>
+  <si>
+    <t>25+63</t>
+  </si>
+  <si>
+    <t>双联开关</t>
+  </si>
+  <si>
+    <t>105+6</t>
   </si>
   <si>
     <t>工 程 量 汇 总 表</t>
@@ -157,7 +172,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +238,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -569,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -584,6 +605,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -710,137 +742,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +899,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -886,7 +921,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -904,50 +945,87 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1003,7 +1081,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <font>
         <name val="宋体"/>
@@ -1069,6 +1147,9 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1497,20 +1578,20 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{F09DD5F4-496E-4FF4-9C14-C6E6FF5C0B59}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{3C02482C-6C0A-47E2-B382-BDF59CEE664C}">
+      <tableStyleElement type="wholeTable" dxfId="13"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1522,26 +1603,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J24" totalsRowShown="0">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:K22" totalsRowShown="0">
+  <tableColumns count="11">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="分 部" dataDxfId="1"/>
-    <tableColumn id="3" name="未区分分部" dataDxfId="2">
-      <calculatedColumnFormula>IF(ISBLANK(B4),C3,B4)</calculatedColumnFormula>
+    <tableColumn id="11" name="列1" dataDxfId="2">
+      <calculatedColumnFormula>B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="项 目" dataDxfId="3"/>
-    <tableColumn id="5" name="计 算 式" dataDxfId="4"/>
-    <tableColumn id="6" name="倍数" dataDxfId="5"/>
-    <tableColumn id="7" name="合计1" dataDxfId="6">
-      <calculatedColumnFormula>IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</calculatedColumnFormula>
+    <tableColumn id="3" name="未区分分部" dataDxfId="3">
+      <calculatedColumnFormula array="1">IF(C4=0,INDIRECT("D"&amp;ROW()-1),C4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="计/否" dataDxfId="7"/>
-    <tableColumn id="9" name="合 计" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISBLANK(H4),IFERROR(G4,""),0)</calculatedColumnFormula>
+    <tableColumn id="4" name="项 目" dataDxfId="4"/>
+    <tableColumn id="5" name="计 算 式" dataDxfId="5"/>
+    <tableColumn id="6" name="倍数" dataDxfId="6"/>
+    <tableColumn id="7" name="合计1" dataDxfId="7">
+      <calculatedColumnFormula>IF(COUNTBLANK(G4)=1,EVALUATE(F4),EVALUATE(F4)*G4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="说明" dataDxfId="9"/>
+    <tableColumn id="8" name="计/否" dataDxfId="8"/>
+    <tableColumn id="9" name="合 计" dataDxfId="9">
+      <calculatedColumnFormula>IF(ISBLANK(I4),IFERROR(H4,""),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="说明" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1805,902 +1889,882 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.675" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39" style="10" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.2916666666667" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="8.90833333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.675" style="7" customWidth="1"/>
+    <col min="6" max="6" width="39" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="12" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.2916666666667" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+    <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:11">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="20" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:11">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A4" s="23">
-        <f t="shared" ref="A4:A10" si="0">ROW()-3</f>
+      <c r="K3" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A4" s="26">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="28" t="str">
+        <f>B4</f>
+        <v>灯具</v>
+      </c>
+      <c r="D4" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D4">IF(C4=0,INDIRECT("D"&amp;ROW()-1),C4)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G4)=1,EVALUATE(F4),EVALUATE(F4)*G4)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I4),IFERROR(H4,""),0)</f>
+        <v/>
+      </c>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:11">
+      <c r="A5" s="26">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="31">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D5">IF(C5=0,INDIRECT("D"&amp;ROW()-1),C5)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="29">
+        <f ca="1">IF(COUNTBLANK(G5)=1,EVALUATE(F5),EVALUATE(F5)*G5)</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="29">
+        <f ca="1">IF(ISBLANK(I5),IFERROR(H5,""),0)</f>
+        <v>16</v>
+      </c>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:11">
+      <c r="A6" s="26">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="31">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D6">IF(C6=0,INDIRECT("D"&amp;ROW()-1),C6)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="29">
+        <f ca="1">IF(COUNTBLANK(G6)=1,EVALUATE(F6),EVALUATE(F6)*G6)</f>
+        <v>33</v>
+      </c>
+      <c r="I6" s="42"/>
+      <c r="J6" s="29">
+        <f ca="1">IF(ISBLANK(I6),IFERROR(H6,""),0)</f>
+        <v>33</v>
+      </c>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:11">
+      <c r="A7" s="26">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D7">IF(C7=0,INDIRECT("D"&amp;ROW()-1),C7)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="29">
+        <f ca="1">IF(COUNTBLANK(G7)=1,EVALUATE(F7),EVALUATE(F7)*G7)</f>
+        <v>35</v>
+      </c>
+      <c r="I7" s="42"/>
+      <c r="J7" s="29">
+        <f ca="1">IF(ISBLANK(I7),IFERROR(H7,""),0)</f>
+        <v>35</v>
+      </c>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:11">
+      <c r="A8" s="26">
+        <f>ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D8">IF(C8=0,INDIRECT("D"&amp;ROW()-1),C8)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G8)=1,EVALUATE(F8),EVALUATE(F8)*G8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I8),IFERROR(H8,""),0)</f>
+        <v/>
+      </c>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:11">
+      <c r="A9" s="26">
+        <f>ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D9">IF(C9=0,INDIRECT("D"&amp;ROW()-1),C9)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="26">
+        <v>29</v>
+      </c>
+      <c r="H9" s="29">
+        <f ca="1">IF(COUNTBLANK(G9)=1,EVALUATE(F9),EVALUATE(F9)*G9)</f>
+        <v>928</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="29">
+        <f ca="1">IF(ISBLANK(I9),IFERROR(H9,""),0)</f>
+        <v>928</v>
+      </c>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:11">
+      <c r="A10" s="26">
+        <f>ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28">
+        <f>B10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f ca="1">IF(C10=0,INDIRECT("D"&amp;ROW()-1),C10)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="29">
+        <f ca="1">IF(COUNTBLANK(G10)=1,EVALUATE(F10),EVALUATE(F10)*G10)</f>
+        <v>15</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="29">
+        <f ca="1">IF(ISBLANK(I10),IFERROR(H10,""),0)</f>
+        <v>15</v>
+      </c>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:11">
+      <c r="A11" s="26">
+        <f>ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f ca="1">IF(C11=0,INDIRECT("D"&amp;ROW()-1),C11)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G11)=1,EVALUATE(F11),EVALUATE(F11)*G11)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I11),IFERROR(H11,""),0)</f>
+        <v/>
+      </c>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:11">
+      <c r="A12" s="26">
+        <f>ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28">
+        <f>B12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D12">IF(C12=0,INDIRECT("D"&amp;ROW()-1),C12)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="26">
+        <v>29</v>
+      </c>
+      <c r="H12" s="29">
+        <f ca="1">IF(COUNTBLANK(G12)=1,EVALUATE(F12),EVALUATE(F12)*G12)</f>
+        <v>1044</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="29">
+        <f ca="1">IF(ISBLANK(I12),IFERROR(H12,""),0)</f>
+        <v>1044</v>
+      </c>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:11">
+      <c r="A13" s="26">
+        <f>ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28">
+        <f>B13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D13">IF(C13=0,INDIRECT("D"&amp;ROW()-1),C13)</f>
+        <v>灯具</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="26">
+        <v>29</v>
+      </c>
+      <c r="H13" s="29">
+        <f ca="1">IF(COUNTBLANK(G13)=1,EVALUATE(F13),EVALUATE(F13)*G13)</f>
+        <v>899</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="29">
+        <f ca="1">IF(ISBLANK(I13),IFERROR(H13,""),0)</f>
+        <v>899</v>
+      </c>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="1:11">
+      <c r="A14" s="26">
+        <f>ROW()-3</f>
+        <v>11</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>B14</f>
+        <v>开关</v>
+      </c>
+      <c r="D14" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D14">IF(C14=0,INDIRECT("D"&amp;ROW()-1),C14)</f>
+        <v>开关</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G14)=1,EVALUATE(F14),EVALUATE(F14)*G14)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I14),IFERROR(H14,""),0)</f>
+        <v/>
+      </c>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:11">
+      <c r="A15" s="26">
+        <f>ROW()-3</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28">
+        <f>B15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D15">IF(C15=0,INDIRECT("D"&amp;ROW()-1),C15)</f>
+        <v>开关</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="29">
+        <f ca="1">IF(COUNTBLANK(G15)=1,EVALUATE(F15),EVALUATE(F15)*G15)</f>
+        <v>88</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="29">
+        <f ca="1">IF(ISBLANK(I15),IFERROR(H15,""),0)</f>
+        <v>88</v>
+      </c>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:11">
+      <c r="A16" s="26">
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="str">
-        <f>IF(ISBLANK(B4),C3,B4)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="26" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="28">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D16">IF(C16=0,INDIRECT("D"&amp;ROW()-1),C16)</f>
+        <v>开关</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G16)=1,EVALUATE(F16),EVALUATE(F16)*G16)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I16),IFERROR(H16,""),0)</f>
+        <v/>
+      </c>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:11">
+      <c r="A17" s="26">
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25" t="e">
-        <f ca="1" t="shared" ref="G4:G10" si="1">IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</f>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D17">IF(C17=0,INDIRECT("D"&amp;ROW()-1),C17)</f>
+        <v>开关</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="29">
+        <f ca="1">IF(COUNTBLANK(G17)=1,EVALUATE(F17),EVALUATE(F17)*G17)</f>
+        <v>111</v>
+      </c>
+      <c r="I17" s="42"/>
+      <c r="J17" s="29">
+        <f ca="1">IF(ISBLANK(I17),IFERROR(H17,""),0)</f>
+        <v>111</v>
+      </c>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" ht="16" customHeight="1" spans="1:11">
+      <c r="A18" s="26">
+        <f>ROW()-3</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D18">IF(C18=0,INDIRECT("D"&amp;ROW()-1),C18)</f>
+        <v>开关</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G18)=1,EVALUATE(F18),EVALUATE(F18)*G18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="25" t="str">
-        <f ca="1" t="shared" ref="I4:I10" si="2">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
+      <c r="I18" s="42"/>
+      <c r="J18" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I18),IFERROR(H18,""),0)</f>
         <v/>
       </c>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="str">
-        <f>IF(ISBLANK(B5),C4,B5)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" ht="16" customHeight="1" spans="1:11">
+      <c r="A19" s="26">
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="25">
-        <f ca="1" t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25">
-        <f ca="1" t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="str">
-        <f>IF(ISBLANK(B6),C5,B6)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28">
+        <f>B19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D19">IF(C19=0,INDIRECT("D"&amp;ROW()-1),C19)</f>
+        <v>开关</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G19)=1,EVALUATE(F19),EVALUATE(F19)*G19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" s="42"/>
+      <c r="J19" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I19),IFERROR(H19,""),0)</f>
+        <v/>
+      </c>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" ht="16" customHeight="1" spans="1:11">
+      <c r="A20" s="26">
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
+        <f>B20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D20">IF(C20=0,INDIRECT("D"&amp;ROW()-1),C20)</f>
+        <v>开关</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G20)=1,EVALUATE(F20),EVALUATE(F20)*G20)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="42"/>
+      <c r="J20" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I20),IFERROR(H20,""),0)</f>
+        <v/>
+      </c>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" ht="16" customHeight="1" spans="1:11">
+      <c r="A21" s="26">
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25">
-        <f ca="1" t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25">
-        <f ca="1" t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="str">
-        <f>IF(ISBLANK(B7),C6,B7)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="32">
+        <f>B21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="29" t="str" cm="1">
+        <f ca="1" t="array" ref="D21">IF(C21=0,INDIRECT("D"&amp;ROW()-1),C21)</f>
+        <v>开关</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="29" t="e">
+        <f ca="1">IF(COUNTBLANK(G21)=1,EVALUATE(F21),EVALUATE(F21)*G21)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="29" t="str">
+        <f ca="1">IF(ISBLANK(I21),IFERROR(H21,""),0)</f>
+        <v/>
+      </c>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="33">
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25">
-        <f ca="1" t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25">
-        <f ca="1" t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="str">
-        <f>IF(ISBLANK(B8),C6,B8)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35">
+        <f>B22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="36" t="str">
+        <f ca="1">IF(C22=0,INDIRECT("D"&amp;ROW()-1),C22)</f>
+        <v>开关</v>
+      </c>
+      <c r="E22" s="34">
+        <v>56</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="36" t="e">
+        <f ca="1">IF(COUNTBLANK(G22)=1,EVALUATE(F22),EVALUATE(F22)*G22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="36" t="str">
+        <f ca="1">IF(ISBLANK(I22),IFERROR(H22,""),0)</f>
         <v/>
       </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="str">
-        <f>IF(ISBLANK(B9),C8,B9)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="23">
-        <v>29</v>
-      </c>
-      <c r="G9" s="25">
-        <f ca="1" t="shared" si="1"/>
-        <v>928</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25">
-        <f ca="1" t="shared" si="2"/>
-        <v>928</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="str">
-        <f>IF(ISBLANK(B10),C9,B10)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="23">
-        <v>29</v>
-      </c>
-      <c r="G10" s="25">
-        <f ca="1" t="shared" si="1"/>
-        <v>1044</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25">
-        <f ca="1" t="shared" si="2"/>
-        <v>1044</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="23">
-        <f t="shared" ref="A11:A24" si="3">ROW()-3</f>
-        <v>8</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="str">
-        <f>IF(ISBLANK(B11),C9,B11)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="23">
-        <v>29</v>
-      </c>
-      <c r="G11" s="25">
-        <f ca="1" t="shared" ref="G11:G24" si="4">IF(COUNTBLANK(F11)=1,EVALUATE(E11),EVALUATE(E11)*F11)</f>
-        <v>870</v>
-      </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25">
-        <f ca="1" t="shared" ref="I11:I24" si="5">IF(ISBLANK(H11),IFERROR(G11,""),0)</f>
-        <v>870</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="23">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="str">
-        <f>IF(ISBLANK(B12),C9,B12)</f>
-        <v>灯具</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="23">
-        <v>29</v>
-      </c>
-      <c r="G12" s="25">
-        <f ca="1" t="shared" si="4"/>
-        <v>899</v>
-      </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25">
-        <f ca="1" t="shared" si="5"/>
-        <v>899</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:10">
-      <c r="A13" s="23">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="25" t="str">
-        <f t="shared" ref="C13:C24" si="6">IF(ISBLANK(B13),C12,B13)</f>
-        <v>开关</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:10">
-      <c r="A14" s="23">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:10">
-      <c r="A15" s="23">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:10">
-      <c r="A16" s="23">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:10">
-      <c r="A17" s="23">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="23">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:10">
-      <c r="A19" s="23">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:10">
-      <c r="A20" s="23">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:10">
-      <c r="A21" s="23">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" ht="16" customHeight="1" spans="1:10">
-      <c r="A22" s="23">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" ht="16" customHeight="1" spans="1:10">
-      <c r="A23" s="23">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" ht="16" customHeight="1" spans="1:10">
-      <c r="A24" s="23">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>开关</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25" t="e">
-        <f ca="1" t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25" t="str">
-        <f ca="1" t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J24" s="31"/>
+      <c r="K22" s="45"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EfXmfiqddUA8kmZYBkcPQZESJxYT7R022EGtpMdcLkYA/pm71IznDOBRXUJ+ksxvcxWA28Om4L1YbUmFxw32oQ==" saltValue="b5E2r9y/LHqTOTi4+3EIjA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FocqM9tv5DdCG9wV3tn+s+JWLgUXFXo1W3UZvp8UFswY9W/OnkzLiv6145RptTxrhZF5tjY/FhPS4yeosmZF+g==" saltValue="Ac6lODR94oIJ+ZLCRCdgRA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="B4:B1996 D4:D1996 E4:E1996 F4:F1996 H4:H1996 D20:D23 D9:D12" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="B4:B1993 E4:E1993 F4:F1993 G4:G1993 I4:I1993 E20 E9:E13" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="10" priority="22">
-      <formula>COUNTA($B3:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:J3">
-    <cfRule type="expression" dxfId="10" priority="53">
-      <formula>COUNTA($B3:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>COUNTA($B14:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="10" priority="63">
-      <formula>COUNTA($B14:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:E15">
-    <cfRule type="expression" dxfId="10" priority="89">
-      <formula>COUNTA($B15:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="10" priority="95">
-      <formula>COUNTA($B15:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="10" priority="91">
-      <formula>COUNTA($B16:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="10" priority="100">
-      <formula>COUNTA($B16:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="10" priority="90">
-      <formula>COUNTA($B17:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="10" priority="99">
-      <formula>COUNTA($B17:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>COUNTA($B18:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>COUNTA($B18:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="10" priority="98">
-      <formula>COUNTA($B18:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:E19">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>COUNTA($B19:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="10" priority="97">
-      <formula>COUNTA($B19:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="10" priority="7">
-      <formula>COUNTA($B20:$J24)&gt;0</formula>
+    <cfRule type="expression" dxfId="11" priority="22">
+      <formula>COUNTA($B3:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:K3">
+    <cfRule type="expression" dxfId="11" priority="53">
+      <formula>COUNTA($B3:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="11" priority="133">
+      <formula>COUNTA($B12:$K29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="11" priority="112">
+      <formula>COUNTA($B12:$K27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>COUNTA($B13:$K28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="expression" dxfId="11" priority="89">
+      <formula>COUNTA($B17:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="11" priority="95">
+      <formula>COUNTA($B17:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F18">
+    <cfRule type="expression" dxfId="11" priority="91">
+      <formula>COUNTA($B18:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="11" priority="100">
+      <formula>COUNTA($B18:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:F19">
+    <cfRule type="expression" dxfId="11" priority="90">
+      <formula>COUNTA($B19:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="11" priority="99">
+      <formula>COUNTA($B19:$K21)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="10" priority="94">
-      <formula>COUNTA($B20:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="10" priority="96">
-      <formula>COUNTA($B20:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>COUNTA($B21:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="10" priority="93">
-      <formula>COUNTA($B21:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="10" priority="87">
-      <formula>COUNTA($B21:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>COUNTA($B22:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="10" priority="92">
-      <formula>COUNTA($B22:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="10" priority="88">
-      <formula>COUNTA($B22:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>COUNTA($B23:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>COUNTA($B23:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="10" priority="20">
-      <formula>COUNTA($B24:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10">
-    <cfRule type="expression" dxfId="10" priority="112">
-      <formula>COUNTA($B9:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>COUNTA($B11:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="expression" dxfId="10" priority="35">
-      <formula>COUNTA($B12:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="expression" dxfId="10" priority="101">
-      <formula>COUNTA($B12:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1048576 A1:J1">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>COUNTA($B20:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>COUNTA($B20:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="expression" dxfId="11" priority="20">
+      <formula>COUNTA($B21:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="expression" dxfId="11" priority="131">
+      <formula>COUNTA($B8:$K25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D19">
+    <cfRule type="expression" dxfId="11" priority="132">
+      <formula>COUNTA($B13:$K31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="expression" dxfId="11" priority="119">
+      <formula>COUNTA($B20:$K42)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E11">
+    <cfRule type="expression" dxfId="11" priority="118">
+      <formula>COUNTA($B9:$K26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F14">
+    <cfRule type="expression" dxfId="11" priority="35">
+      <formula>COUNTA($B13:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I14">
+    <cfRule type="expression" dxfId="11" priority="101">
+      <formula>COUNTA($B13:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I16">
+    <cfRule type="expression" dxfId="11" priority="63">
+      <formula>COUNTA($B15:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C1048576 A1:K1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J7">
-    <cfRule type="expression" dxfId="10" priority="105">
-      <formula>COUNTA($B4:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8 D8:F8 H8 J8">
-    <cfRule type="expression" dxfId="10" priority="107">
-      <formula>COUNTA($B8:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8 G8 I8">
-    <cfRule type="expression" dxfId="10" priority="108">
-      <formula>COUNTA($B8:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B10 E9:F10 H9:H10 J9:J10">
-    <cfRule type="expression" dxfId="10" priority="110">
-      <formula>COUNTA($B9:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10 G9:G10 I9:I10">
-    <cfRule type="expression" dxfId="10" priority="113">
-      <formula>COUNTA($B9:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11 E11:F11 H11 J11">
-    <cfRule type="expression" dxfId="10" priority="109">
-      <formula>COUNTA($B11:$J24)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11 G11 I11">
-    <cfRule type="expression" dxfId="10" priority="111">
-      <formula>COUNTA($B11:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B13 D13 F12:F13 J12:J13">
-    <cfRule type="expression" dxfId="10" priority="43">
-      <formula>COUNTA($B12:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15 G12:G15 I12:I15">
-    <cfRule type="expression" dxfId="10" priority="106">
-      <formula>COUNTA($B12:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14 F14 J14">
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>COUNTA($B14:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 F15 J15">
-    <cfRule type="expression" dxfId="10" priority="47">
-      <formula>COUNTA($B15:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 F16 J16">
-    <cfRule type="expression" dxfId="10" priority="46">
-      <formula>COUNTA($B16:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C24 G16:G24 I16:I24">
-    <cfRule type="expression" dxfId="10" priority="102">
-      <formula>COUNTA($B16:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17 F17 J17">
-    <cfRule type="expression" dxfId="10" priority="76">
-      <formula>COUNTA($B17:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 F18 J18">
-    <cfRule type="expression" dxfId="10" priority="85">
-      <formula>COUNTA($B18:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 F19 J19">
-    <cfRule type="expression" dxfId="10" priority="45">
-      <formula>COUNTA($B19:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20 F20 J20">
-    <cfRule type="expression" dxfId="10" priority="80">
-      <formula>COUNTA($B20:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21 F21 J21">
-    <cfRule type="expression" dxfId="10" priority="79">
-      <formula>COUNTA($B21:$J22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22 F22 J22">
-    <cfRule type="expression" dxfId="10" priority="44">
-      <formula>COUNTA($B22:$J22)&gt;0</formula>
+  <conditionalFormatting sqref="B4:K7">
+    <cfRule type="expression" dxfId="11" priority="134">
+      <formula>COUNTA($B4:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8 E8:G8 I8 K8">
+    <cfRule type="expression" dxfId="11" priority="107">
+      <formula>COUNTA($B8:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8 J8">
+    <cfRule type="expression" dxfId="11" priority="108">
+      <formula>COUNTA($B8:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C11 F9:G11 I9:I11 K9:K11">
+    <cfRule type="expression" dxfId="11" priority="120">
+      <formula>COUNTA($B9:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H11 J9:J11">
+    <cfRule type="expression" dxfId="11" priority="121">
+      <formula>COUNTA($B9:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12 F12:G12 I12 K12">
+    <cfRule type="expression" dxfId="11" priority="110">
+      <formula>COUNTA($B12:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 J12">
+    <cfRule type="expression" dxfId="11" priority="113">
+      <formula>COUNTA($B12:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C14 E14 G13:G14 K13:K14">
+    <cfRule type="expression" dxfId="11" priority="43">
+      <formula>COUNTA($B13:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H16 J13:J16">
+    <cfRule type="expression" dxfId="11" priority="123">
+      <formula>COUNTA($B13:$K22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C16 G15:G16 K15:K16">
+    <cfRule type="expression" dxfId="11" priority="42">
+      <formula>COUNTA($B15:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:F16">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>COUNTA($B15:$K21)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17 G17 K17">
+    <cfRule type="expression" dxfId="11" priority="47">
+      <formula>COUNTA($B17:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17 J17">
+    <cfRule type="expression" dxfId="11" priority="106">
+      <formula>COUNTA($B17:$K25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18 G18 K18">
+    <cfRule type="expression" dxfId="11" priority="46">
+      <formula>COUNTA($B18:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19 J18:J19">
+    <cfRule type="expression" dxfId="11" priority="129">
+      <formula>COUNTA($B18:$K26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19 G19 K19">
+    <cfRule type="expression" dxfId="11" priority="76">
+      <formula>COUNTA($B19:$K19)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H21 J20:J21">
+    <cfRule type="expression" dxfId="11" priority="102">
+      <formula>COUNTA($B20:$K33)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.432638888888889" bottom="0.432638888888889" header="0.275" footer="0.156944444444444"/>
@@ -2722,7 +2786,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2735,25 +2799,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="str" cm="1">
-        <f ca="1" t="array" ref="A3:C10">_xlfn.GROUPBY(工程量计算底稿!C4:D1996,工程量计算底稿!I4:I1996,_xleta.sum)</f>
+        <f ca="1" t="array" ref="A3:C13">_xlfn.GROUPBY(工程量计算底稿!D4:E1993,工程量计算底稿!J4:J1993,_xleta.sum)</f>
         <v>灯具</v>
       </c>
       <c r="B3" s="5" t="str">
@@ -2793,7 +2857,7 @@
         <v>双管荧光灯</v>
       </c>
       <c r="C6" s="5">
-        <v>903</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:3">
@@ -2804,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:3">
@@ -2812,48 +2876,66 @@
         <v>开关</v>
       </c>
       <c r="B8" s="5">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0</v>
+      <c r="A9" s="5" t="str">
+        <v>开关</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <v>单联开关</v>
       </c>
       <c r="C9" s="5">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="13.5" spans="1:3">
       <c r="A10" s="5" t="str">
+        <v>开关</v>
+      </c>
+      <c r="B10" s="5" t="str">
+        <v>双联开关</v>
+      </c>
+      <c r="C10" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="1:3">
+      <c r="A11" s="5" t="str">
+        <v>开关</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="1:3">
+      <c r="A12" s="5">
+        <v>0</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" spans="1:3">
+      <c r="A13" s="5" t="str">
         <v>总计</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B13" s="5" t="str">
         <v/>
       </c>
-      <c r="C10" s="5">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <v>3169</v>
+      </c>
     </row>
     <row r="14" ht="13.5" spans="1:3">
       <c r="A14" s="5"/>

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -63,16 +63,13 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>1#楼电气工程</t>
+    <t>*******工程</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>分 部</t>
-  </si>
-  <si>
-    <t>列1</t>
   </si>
   <si>
     <t>未区分分部</t>
@@ -99,63 +96,6 @@
     <t>说明</t>
   </si>
   <si>
-    <t>灯具</t>
-  </si>
-  <si>
-    <t>1层</t>
-  </si>
-  <si>
-    <t>单管荧光灯</t>
-  </si>
-  <si>
-    <t>2+3+6+5</t>
-  </si>
-  <si>
-    <t>双管荧光灯</t>
-  </si>
-  <si>
-    <t>2+5+9+8+6+3</t>
-  </si>
-  <si>
-    <t>疏散指示灯</t>
-  </si>
-  <si>
-    <t>4+5+6+3+8+9</t>
-  </si>
-  <si>
-    <t>2-30层</t>
-  </si>
-  <si>
-    <t>2+5+6+9+10</t>
-  </si>
-  <si>
-    <t>12+3</t>
-  </si>
-  <si>
-    <t>球形吸顶灯</t>
-  </si>
-  <si>
-    <t>23+5+8</t>
-  </si>
-  <si>
-    <t>5+8+9+6+3</t>
-  </si>
-  <si>
-    <t>开关</t>
-  </si>
-  <si>
-    <t>单联开关</t>
-  </si>
-  <si>
-    <t>25+63</t>
-  </si>
-  <si>
-    <t>双联开关</t>
-  </si>
-  <si>
-    <t>105+6</t>
-  </si>
-  <si>
     <t>工 程 量 汇 总 表</t>
   </si>
   <si>
@@ -172,7 +112,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +178,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -590,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -605,17 +550,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -742,137 +676,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,9 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -921,13 +852,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -945,10 +870,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -964,48 +890,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1014,18 +951,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1081,7 +1014,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <font>
         <name val="宋体"/>
@@ -1147,9 +1080,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1578,20 +1508,20 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{3C02482C-6C0A-47E2-B382-BDF59CEE664C}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{AB632926-7CA6-4297-9AD6-1795DCA180CA}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
-      <tableStyleElement type="pageFieldValues" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
+      <tableStyleElement type="pageFieldValues" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1603,29 +1533,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:K22" totalsRowShown="0">
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J30" totalsRowShown="0">
+  <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="分 部" dataDxfId="1"/>
-    <tableColumn id="11" name="列1" dataDxfId="2">
-      <calculatedColumnFormula>B4</calculatedColumnFormula>
+    <tableColumn id="3" name="未区分分部" dataDxfId="2">
+      <calculatedColumnFormula array="1">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="未区分分部" dataDxfId="3">
-      <calculatedColumnFormula array="1">IF(C4=0,INDIRECT("D"&amp;ROW()-1),C4)</calculatedColumnFormula>
+    <tableColumn id="4" name="项 目" dataDxfId="3"/>
+    <tableColumn id="5" name="计 算 式" dataDxfId="4"/>
+    <tableColumn id="6" name="倍数" dataDxfId="5"/>
+    <tableColumn id="7" name="合计1" dataDxfId="6">
+      <calculatedColumnFormula>IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="项 目" dataDxfId="4"/>
-    <tableColumn id="5" name="计 算 式" dataDxfId="5"/>
-    <tableColumn id="6" name="倍数" dataDxfId="6"/>
-    <tableColumn id="7" name="合计1" dataDxfId="7">
-      <calculatedColumnFormula>IF(COUNTBLANK(G4)=1,EVALUATE(F4),EVALUATE(F4)*G4)</calculatedColumnFormula>
+    <tableColumn id="8" name="计/否" dataDxfId="7"/>
+    <tableColumn id="9" name="合 计" dataDxfId="8">
+      <calculatedColumnFormula>IF(ISBLANK(H4),IFERROR(G4,""),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="计/否" dataDxfId="8"/>
-    <tableColumn id="9" name="合 计" dataDxfId="9">
-      <calculatedColumnFormula>IF(ISBLANK(I4),IFERROR(H4,""),0)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="说明" dataDxfId="10"/>
+    <tableColumn id="10" name="说明" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1889,888 +1816,948 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.90833333333333" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="10" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.675" style="7" customWidth="1"/>
-    <col min="6" max="6" width="39" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="18.2916666666667" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="9.25" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.675" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39" style="10" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.2916666666667" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:11">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:11">
-      <c r="A3" s="22" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" ht="16" customHeight="1" spans="1:11">
-      <c r="A4" s="26">
+    </row>
+    <row r="4" s="7" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A4" s="23">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="28" t="str">
-        <f>B4</f>
-        <v>灯具</v>
-      </c>
-      <c r="D4" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D4">IF(C4=0,INDIRECT("D"&amp;ROW()-1),C4)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G4)=1,EVALUATE(F4),EVALUATE(F4)*G4)</f>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I4),IFERROR(H4,""),0)</f>
+      <c r="H4" s="27"/>
+      <c r="I4" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
         <v/>
       </c>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:11">
-      <c r="A5" s="26">
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:10">
+      <c r="A5" s="23">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31">
-        <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D5">IF(C5=0,INDIRECT("D"&amp;ROW()-1),C5)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="29">
-        <f ca="1">IF(COUNTBLANK(G5)=1,EVALUATE(F5),EVALUATE(F5)*G5)</f>
-        <v>16</v>
-      </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="29">
-        <f ca="1">IF(ISBLANK(I5),IFERROR(H5,""),0)</f>
-        <v>16</v>
-      </c>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:11">
-      <c r="A6" s="26">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F5)=1,EVALUATE(E5),EVALUATE(E5)*F5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,""),0)</f>
+        <v/>
+      </c>
+      <c r="J5" s="42"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:10">
+      <c r="A6" s="23">
         <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31">
-        <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D6">IF(C6=0,INDIRECT("D"&amp;ROW()-1),C6)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="29">
-        <f ca="1">IF(COUNTBLANK(G6)=1,EVALUATE(F6),EVALUATE(F6)*G6)</f>
-        <v>33</v>
-      </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="29">
-        <f ca="1">IF(ISBLANK(I6),IFERROR(H6,""),0)</f>
-        <v>33</v>
-      </c>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:11">
-      <c r="A7" s="26">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F6)=1,EVALUATE(E6),EVALUATE(E6)*F6)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,""),0)</f>
+        <v/>
+      </c>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
+      <c r="A7" s="23">
         <f>ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D7">IF(C7=0,INDIRECT("D"&amp;ROW()-1),C7)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="29">
-        <f ca="1">IF(COUNTBLANK(G7)=1,EVALUATE(F7),EVALUATE(F7)*G7)</f>
-        <v>35</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="29">
-        <f ca="1">IF(ISBLANK(I7),IFERROR(H7,""),0)</f>
-        <v>35</v>
-      </c>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:11">
-      <c r="A8" s="26">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F7)=1,EVALUATE(E7),EVALUATE(E7)*F7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,""),0)</f>
+        <v/>
+      </c>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
+      <c r="A8" s="23">
         <f>ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D8">IF(C8=0,INDIRECT("D"&amp;ROW()-1),C8)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G8)=1,EVALUATE(F8),EVALUATE(F8)*G8)</f>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F8)=1,EVALUATE(E8),EVALUATE(E8)*F8)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I8),IFERROR(H8,""),0)</f>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,""),0)</f>
         <v/>
       </c>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" ht="16" customHeight="1" spans="1:11">
-      <c r="A9" s="26">
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:10">
+      <c r="A9" s="23">
         <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D9">IF(C9=0,INDIRECT("D"&amp;ROW()-1),C9)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="26">
-        <v>29</v>
-      </c>
-      <c r="H9" s="29">
-        <f ca="1">IF(COUNTBLANK(G9)=1,EVALUATE(F9),EVALUATE(F9)*G9)</f>
-        <v>928</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="29">
-        <f ca="1">IF(ISBLANK(I9),IFERROR(H9,""),0)</f>
-        <v>928</v>
-      </c>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" ht="16" customHeight="1" spans="1:11">
-      <c r="A10" s="26">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="str">
+        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F9)=1,EVALUATE(E9),EVALUATE(E9)*F9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,""),0)</f>
+        <v/>
+      </c>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
+      <c r="A10" s="23">
         <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
-        <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f ca="1">IF(C10=0,INDIRECT("D"&amp;ROW()-1),C10)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="29">
-        <f ca="1">IF(COUNTBLANK(G10)=1,EVALUATE(F10),EVALUATE(F10)*G10)</f>
-        <v>15</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="29">
-        <f ca="1">IF(ISBLANK(I10),IFERROR(H10,""),0)</f>
-        <v>15</v>
-      </c>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:11">
-      <c r="A11" s="26">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="str">
+        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F10)=1,EVALUATE(E10),EVALUATE(E10)*F10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,""),0)</f>
+        <v/>
+      </c>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:10">
+      <c r="A11" s="23">
         <f>ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f ca="1">IF(C11=0,INDIRECT("D"&amp;ROW()-1),C11)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G11)=1,EVALUATE(F11),EVALUATE(F11)*G11)</f>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="str">
+        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F11)=1,EVALUATE(E11),EVALUATE(E11)*F11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I11),IFERROR(H11,""),0)</f>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,""),0)</f>
         <v/>
       </c>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" ht="16" customHeight="1" spans="1:11">
-      <c r="A12" s="26">
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:10">
+      <c r="A12" s="23">
         <f>ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28">
-        <f>B12</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D12">IF(C12=0,INDIRECT("D"&amp;ROW()-1),C12)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="26">
-        <v>29</v>
-      </c>
-      <c r="H12" s="29">
-        <f ca="1">IF(COUNTBLANK(G12)=1,EVALUATE(F12),EVALUATE(F12)*G12)</f>
-        <v>1044</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="29">
-        <f ca="1">IF(ISBLANK(I12),IFERROR(H12,""),0)</f>
-        <v>1044</v>
-      </c>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" ht="16" customHeight="1" spans="1:11">
-      <c r="A13" s="26">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="str">
+        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F12)=1,EVALUATE(E12),EVALUATE(E12)*F12)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,""),0)</f>
+        <v/>
+      </c>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:10">
+      <c r="A13" s="23">
         <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28">
-        <f>B13</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D13">IF(C13=0,INDIRECT("D"&amp;ROW()-1),C13)</f>
-        <v>灯具</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="26">
-        <v>29</v>
-      </c>
-      <c r="H13" s="29">
-        <f ca="1">IF(COUNTBLANK(G13)=1,EVALUATE(F13),EVALUATE(F13)*G13)</f>
-        <v>899</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="29">
-        <f ca="1">IF(ISBLANK(I13),IFERROR(H13,""),0)</f>
-        <v>899</v>
-      </c>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" ht="16" customHeight="1" spans="1:11">
-      <c r="A14" s="26">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C13">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F13)=1,EVALUATE(E13),EVALUATE(E13)*F13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,""),0)</f>
+        <v/>
+      </c>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="23">
         <f>ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="28" t="str">
-        <f>B14</f>
-        <v>开关</v>
-      </c>
-      <c r="D14" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D14">IF(C14=0,INDIRECT("D"&amp;ROW()-1),C14)</f>
-        <v>开关</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G14)=1,EVALUATE(F14),EVALUATE(F14)*G14)</f>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C14">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F14)=1,EVALUATE(E14),EVALUATE(E14)*F14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I14),IFERROR(H14,""),0)</f>
+      <c r="H14" s="27"/>
+      <c r="I14" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,""),0)</f>
         <v/>
       </c>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" ht="16" customHeight="1" spans="1:11">
-      <c r="A15" s="26">
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
+      <c r="A15" s="23">
         <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28">
-        <f>B15</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D15">IF(C15=0,INDIRECT("D"&amp;ROW()-1),C15)</f>
-        <v>开关</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="29">
-        <f ca="1">IF(COUNTBLANK(G15)=1,EVALUATE(F15),EVALUATE(F15)*G15)</f>
-        <v>88</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="29">
-        <f ca="1">IF(ISBLANK(I15),IFERROR(H15,""),0)</f>
-        <v>88</v>
-      </c>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" ht="16" customHeight="1" spans="1:11">
-      <c r="A16" s="26">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C15">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F15)=1,EVALUATE(E15),EVALUATE(E15)*F15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,""),0)</f>
+        <v/>
+      </c>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
+      <c r="A16" s="23">
         <f>ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28">
-        <f>B16</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D16">IF(C16=0,INDIRECT("D"&amp;ROW()-1),C16)</f>
-        <v>开关</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G16)=1,EVALUATE(F16),EVALUATE(F16)*G16)</f>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C16">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F16)=1,EVALUATE(E16),EVALUATE(E16)*F16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I16),IFERROR(H16,""),0)</f>
+      <c r="H16" s="27"/>
+      <c r="I16" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,""),0)</f>
         <v/>
       </c>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" ht="16" customHeight="1" spans="1:11">
-      <c r="A17" s="26">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
+      <c r="A17" s="23">
         <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28">
-        <f>B17</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D17">IF(C17=0,INDIRECT("D"&amp;ROW()-1),C17)</f>
-        <v>开关</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="29">
-        <f ca="1">IF(COUNTBLANK(G17)=1,EVALUATE(F17),EVALUATE(F17)*G17)</f>
-        <v>111</v>
-      </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="29">
-        <f ca="1">IF(ISBLANK(I17),IFERROR(H17,""),0)</f>
-        <v>111</v>
-      </c>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" ht="16" customHeight="1" spans="1:11">
-      <c r="A18" s="26">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C17">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F17)=1,EVALUATE(E17),EVALUATE(E17)*F17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,""),0)</f>
+        <v/>
+      </c>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" s="23">
         <f>ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28">
-        <f>B18</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D18">IF(C18=0,INDIRECT("D"&amp;ROW()-1),C18)</f>
-        <v>开关</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G18)=1,EVALUATE(F18),EVALUATE(F18)*G18)</f>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C18">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F18)=1,EVALUATE(E18),EVALUATE(E18)*F18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I18),IFERROR(H18,""),0)</f>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,""),0)</f>
         <v/>
       </c>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" ht="16" customHeight="1" spans="1:11">
-      <c r="A19" s="26">
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
+      <c r="A19" s="23">
         <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28">
-        <f>B19</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D19">IF(C19=0,INDIRECT("D"&amp;ROW()-1),C19)</f>
-        <v>开关</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G19)=1,EVALUATE(F19),EVALUATE(F19)*G19)</f>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C19">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F19)=1,EVALUATE(E19),EVALUATE(E19)*F19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I19),IFERROR(H19,""),0)</f>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,""),0)</f>
         <v/>
       </c>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" ht="16" customHeight="1" spans="1:11">
-      <c r="A20" s="26">
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
+      <c r="A20" s="23">
         <f>ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
-        <f>B20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D20">IF(C20=0,INDIRECT("D"&amp;ROW()-1),C20)</f>
-        <v>开关</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G20)=1,EVALUATE(F20),EVALUATE(F20)*G20)</f>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C20">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F20)=1,EVALUATE(E20),EVALUATE(E20)*F20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I20),IFERROR(H20,""),0)</f>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,""),0)</f>
         <v/>
       </c>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" ht="16" customHeight="1" spans="1:11">
-      <c r="A21" s="26">
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" s="23">
         <f>ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32">
-        <f>B21</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="29" t="str" cm="1">
-        <f ca="1" t="array" ref="D21">IF(C21=0,INDIRECT("D"&amp;ROW()-1),C21)</f>
-        <v>开关</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="29" t="e">
-        <f ca="1">IF(COUNTBLANK(G21)=1,EVALUATE(F21),EVALUATE(F21)*G21)</f>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C21">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F21)=1,EVALUATE(E21),EVALUATE(E21)*F21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="29" t="str">
-        <f ca="1">IF(ISBLANK(I21),IFERROR(H21,""),0)</f>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,""),0)</f>
         <v/>
       </c>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="33">
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
+      <c r="A22" s="23">
         <f>ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35">
-        <f>B22</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="36" t="str">
-        <f ca="1">IF(C22=0,INDIRECT("D"&amp;ROW()-1),C22)</f>
-        <v>开关</v>
-      </c>
-      <c r="E22" s="34">
-        <v>56</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="36" t="e">
-        <f ca="1">IF(COUNTBLANK(G22)=1,EVALUATE(F22),EVALUATE(F22)*G22)</f>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C22">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F22)=1,EVALUATE(E22),EVALUATE(E22)*F22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="36" t="str">
-        <f ca="1">IF(ISBLANK(I22),IFERROR(H22,""),0)</f>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,""),0)</f>
         <v/>
       </c>
-      <c r="K22" s="45"/>
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
+      <c r="A23" s="23">
+        <f>ROW()-3</f>
+        <v>20</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C23">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F23)=1,EVALUATE(E23),EVALUATE(E23)*F23)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,""),0)</f>
+        <v/>
+      </c>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
+      <c r="A24" s="23">
+        <f>ROW()-3</f>
+        <v>21</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C24">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F24)=1,EVALUATE(E24),EVALUATE(E24)*F24)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,""),0)</f>
+        <v/>
+      </c>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:10">
+      <c r="A25" s="23">
+        <f>ROW()-3</f>
+        <v>22</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C25">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F25)=1,EVALUATE(E25),EVALUATE(E25)*F25)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,""),0)</f>
+        <v/>
+      </c>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
+      <c r="A26" s="23">
+        <f>ROW()-3</f>
+        <v>23</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C26">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F26)=1,EVALUATE(E26),EVALUATE(E26)*F26)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,""),0)</f>
+        <v/>
+      </c>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
+      <c r="A27" s="23">
+        <f>ROW()-3</f>
+        <v>24</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C27">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="25" t="e">
+        <f ca="1">IF(COUNTBLANK(F27)=1,EVALUATE(E27),EVALUATE(E27)*F27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="25" t="str">
+        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,""),0)</f>
+        <v/>
+      </c>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:10">
+      <c r="A28" s="29">
+        <f>ROW()-3</f>
+        <v>25</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C28">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="31" t="e">
+        <f ca="1">IF(COUNTBLANK(F28)=1,EVALUATE(E28),EVALUATE(E28)*F28)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="31" t="str">
+        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,""),0)</f>
+        <v/>
+      </c>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="29">
+        <f>ROW()-3</f>
+        <v>26</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C29">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31" t="e">
+        <f ca="1">IF(COUNTBLANK(F29)=1,EVALUATE(E29),EVALUATE(E29)*F29)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="31" t="str">
+        <f ca="1">IF(ISBLANK(H29),IFERROR(G29,""),0)</f>
+        <v/>
+      </c>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="34">
+        <f>ROW()-3</f>
+        <v>27</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="25" t="str" cm="1">
+        <f ca="1" t="array" ref="C30">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="37" t="e">
+        <f ca="1">IF(COUNTBLANK(F30)=1,EVALUATE(E30),EVALUATE(E30)*F30)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37" t="str">
+        <f ca="1">IF(ISBLANK(H30),IFERROR(G30,""),0)</f>
+        <v/>
+      </c>
+      <c r="J30" s="44"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FocqM9tv5DdCG9wV3tn+s+JWLgUXFXo1W3UZvp8UFswY9W/OnkzLiv6145RptTxrhZF5tjY/FhPS4yeosmZF+g==" saltValue="Ac6lODR94oIJ+ZLCRCdgRA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2ZOHOfSxGwvO9gnaZMnZsy3yhhfCE5sfuCd5XbBSXSQcWmqE3FxSdc8x8k0Z+1G3ZFTItlYqVHiFzZvmcFYQ6Q==" saltValue="fL1hdGJRsEVM4SKLeDHlhA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="B4:B1993 E4:E1993 F4:F1993 G4:G1993 I4:I1993 E20 E9:E13" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="B4:B1999 D4:D1999 E4:E1999 F4:F1999 H4:H1999 D26 D15:D19 D16" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <mergeCells count="3">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="11" priority="22">
-      <formula>COUNTA($B3:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:K3">
-    <cfRule type="expression" dxfId="11" priority="53">
-      <formula>COUNTA($B3:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="11" priority="133">
-      <formula>COUNTA($B12:$K29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="11" priority="112">
-      <formula>COUNTA($B12:$K27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>COUNTA($B13:$K28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="11" priority="89">
-      <formula>COUNTA($B17:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="11" priority="95">
-      <formula>COUNTA($B17:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="11" priority="91">
-      <formula>COUNTA($B18:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="11" priority="100">
-      <formula>COUNTA($B18:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:F19">
-    <cfRule type="expression" dxfId="11" priority="90">
-      <formula>COUNTA($B19:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="11" priority="99">
-      <formula>COUNTA($B19:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="11" priority="6">
-      <formula>COUNTA($B20:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>COUNTA($B20:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="11" priority="20">
-      <formula>COUNTA($B21:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
-    <cfRule type="expression" dxfId="11" priority="131">
-      <formula>COUNTA($B8:$K25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D19">
-    <cfRule type="expression" dxfId="11" priority="132">
-      <formula>COUNTA($B13:$K31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" dxfId="11" priority="119">
-      <formula>COUNTA($B20:$K42)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E11">
-    <cfRule type="expression" dxfId="11" priority="118">
-      <formula>COUNTA($B9:$K26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F14">
-    <cfRule type="expression" dxfId="11" priority="35">
-      <formula>COUNTA($B13:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13:I14">
-    <cfRule type="expression" dxfId="11" priority="101">
-      <formula>COUNTA($B13:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I16">
-    <cfRule type="expression" dxfId="11" priority="63">
-      <formula>COUNTA($B15:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C1048576 A1:K1">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="10" priority="23">
+      <formula>COUNTA($B3:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:J3">
+    <cfRule type="expression" dxfId="10" priority="54">
+      <formula>COUNTA($B3:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>COUNTA($B16:$J34)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="10" priority="113">
+      <formula>COUNTA($B18:$J33)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>COUNTA($B19:$J34)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E23">
+    <cfRule type="expression" dxfId="10" priority="90">
+      <formula>COUNTA($B23:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:E24">
+    <cfRule type="expression" dxfId="10" priority="92">
+      <formula>COUNTA($B24:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="expression" dxfId="10" priority="101">
+      <formula>COUNTA($B24:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="expression" dxfId="10" priority="91">
+      <formula>COUNTA($B25:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="10" priority="100">
+      <formula>COUNTA($B25:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>COUNTA($B26:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>COUNTA($B26:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:E27">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>COUNTA($B27:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="expression" dxfId="10" priority="137">
+      <formula>COUNTA($B11:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C30">
+    <cfRule type="expression" dxfId="10" priority="135">
+      <formula>COUNTA($B13:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E20">
+    <cfRule type="expression" dxfId="10" priority="36">
+      <formula>COUNTA($B19:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B1048576 A1:J1">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:K7">
-    <cfRule type="expression" dxfId="11" priority="134">
-      <formula>COUNTA($B4:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8 E8:G8 I8 K8">
-    <cfRule type="expression" dxfId="11" priority="107">
-      <formula>COUNTA($B8:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8 J8">
-    <cfRule type="expression" dxfId="11" priority="108">
-      <formula>COUNTA($B8:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:C11 F9:G11 I9:I11 K9:K11">
-    <cfRule type="expression" dxfId="11" priority="120">
-      <formula>COUNTA($B9:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H11 J9:J11">
-    <cfRule type="expression" dxfId="11" priority="121">
-      <formula>COUNTA($B9:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:C12 F12:G12 I12 K12">
-    <cfRule type="expression" dxfId="11" priority="110">
-      <formula>COUNTA($B12:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12 J12">
-    <cfRule type="expression" dxfId="11" priority="113">
-      <formula>COUNTA($B12:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C14 E14 G13:G14 K13:K14">
-    <cfRule type="expression" dxfId="11" priority="43">
-      <formula>COUNTA($B13:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13:H16 J13:J16">
-    <cfRule type="expression" dxfId="11" priority="123">
-      <formula>COUNTA($B13:$K22)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:C16 G15:G16 K15:K16">
-    <cfRule type="expression" dxfId="11" priority="42">
-      <formula>COUNTA($B15:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:F16">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>COUNTA($B15:$K21)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17 G17 K17">
-    <cfRule type="expression" dxfId="11" priority="47">
-      <formula>COUNTA($B17:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17">
-    <cfRule type="expression" dxfId="11" priority="106">
-      <formula>COUNTA($B17:$K25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:C18 G18 K18">
-    <cfRule type="expression" dxfId="11" priority="46">
-      <formula>COUNTA($B18:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19 J18:J19">
-    <cfRule type="expression" dxfId="11" priority="129">
-      <formula>COUNTA($B18:$K26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:C19 G19 K19">
-    <cfRule type="expression" dxfId="11" priority="76">
-      <formula>COUNTA($B19:$K19)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H21 J20:J21">
-    <cfRule type="expression" dxfId="11" priority="102">
-      <formula>COUNTA($B20:$K33)&gt;0</formula>
+  <conditionalFormatting sqref="B4:J7 C8:C10">
+    <cfRule type="expression" dxfId="10" priority="140">
+      <formula>COUNTA($B4:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 D8:F10 H8:H10 J8:J10">
+    <cfRule type="expression" dxfId="10" priority="141">
+      <formula>COUNTA($B8:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G10 I8:I10">
+    <cfRule type="expression" dxfId="10" priority="142">
+      <formula>COUNTA($B8:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12 D11:F12 H11:H12 J11:J12">
+    <cfRule type="expression" dxfId="10" priority="138">
+      <formula>COUNTA($B11:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12 I11:I12">
+    <cfRule type="expression" dxfId="10" priority="139">
+      <formula>COUNTA($B11:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14 D13:F14 H13:H14 J13:J14">
+    <cfRule type="expression" dxfId="10" priority="108">
+      <formula>COUNTA($B13:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G14 I13:I14">
+    <cfRule type="expression" dxfId="10" priority="109">
+      <formula>COUNTA($B13:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17 E15:F17 H15:H23 J15:J17">
+    <cfRule type="expression" dxfId="10" priority="121">
+      <formula>COUNTA($B15:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D17">
+    <cfRule type="expression" dxfId="10" priority="119">
+      <formula>COUNTA($B15:$J32)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G17 I15:I17">
+    <cfRule type="expression" dxfId="10" priority="122">
+      <formula>COUNTA($B15:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 E18:F18 J18">
+    <cfRule type="expression" dxfId="10" priority="111">
+      <formula>COUNTA($B18:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 I18">
+    <cfRule type="expression" dxfId="10" priority="114">
+      <formula>COUNTA($B18:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20 D20 F19:F20 J19:J20">
+    <cfRule type="expression" dxfId="10" priority="44">
+      <formula>COUNTA($B19:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G22 I19:I22">
+    <cfRule type="expression" dxfId="10" priority="124">
+      <formula>COUNTA($B19:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:B22 F21:F22 J21:J22">
+    <cfRule type="expression" dxfId="10" priority="43">
+      <formula>COUNTA($B21:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:E22">
+    <cfRule type="expression" dxfId="10" priority="17">
+      <formula>COUNTA($B21:$J27)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23 F23 J23">
+    <cfRule type="expression" dxfId="10" priority="48">
+      <formula>COUNTA($B23:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 I23">
+    <cfRule type="expression" dxfId="10" priority="107">
+      <formula>COUNTA($B23:$J31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24 F24 J24">
+    <cfRule type="expression" dxfId="10" priority="47">
+      <formula>COUNTA($B24:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G25 I24:I25">
+    <cfRule type="expression" dxfId="10" priority="130">
+      <formula>COUNTA($B24:$J32)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25 F25 J25">
+    <cfRule type="expression" dxfId="10" priority="77">
+      <formula>COUNTA($B25:$J25)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G27 I26:I27">
+    <cfRule type="expression" dxfId="10" priority="103">
+      <formula>COUNTA($B26:$J39)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.432638888888889" bottom="0.432638888888889" header="0.275" footer="0.156944444444444"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;8第 &amp;P 页，共 &amp;N 页</oddFooter>
+    <oddFooter>&amp;R&amp;9第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2786,7 +2773,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2799,143 +2786,95 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:3">
       <c r="A3" s="5" t="str" cm="1">
-        <f ca="1" t="array" ref="A3:C13">_xlfn.GROUPBY(工程量计算底稿!D4:E1993,工程量计算底稿!J4:J1993,_xleta.sum)</f>
-        <v>灯具</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <v>单管荧光灯</v>
+        <f ca="1" t="array" ref="A3:C5">_xlfn.GROUPBY(工程量计算底稿!C4:D1999,工程量计算底稿!I4:I1999,_xleta.sum)</f>
+        <v>未区分分部</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1" spans="1:3">
-      <c r="A4" s="5" t="str">
-        <v>灯具</v>
-      </c>
-      <c r="B4" s="5" t="str">
-        <v>球形吸顶灯</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="1:3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="1:3">
       <c r="A5" s="5" t="str">
-        <v>灯具</v>
+        <v>总计</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>疏散指示灯</v>
+        <v/>
       </c>
       <c r="C5" s="5">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:3">
-      <c r="A6" s="5" t="str">
-        <v>灯具</v>
-      </c>
-      <c r="B6" s="5" t="str">
-        <v>双管荧光灯</v>
-      </c>
-      <c r="C6" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:3">
-      <c r="A7" s="5" t="str">
-        <v>灯具</v>
-      </c>
-      <c r="B7" s="5">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:3">
-      <c r="A8" s="5" t="str">
-        <v>开关</v>
-      </c>
-      <c r="B8" s="5">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="6" ht="13.5" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="13.5" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="5" t="str">
-        <v>开关</v>
-      </c>
-      <c r="B9" s="5" t="str">
-        <v>单联开关</v>
-      </c>
-      <c r="C9" s="5">
-        <v>88</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="5" t="str">
-        <v>开关</v>
-      </c>
-      <c r="B10" s="5" t="str">
-        <v>双联开关</v>
-      </c>
-      <c r="C10" s="5">
-        <v>111</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="5" t="str">
-        <v>开关</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="5">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="5" t="str">
-        <v>总计</v>
-      </c>
-      <c r="B13" s="5" t="str">
-        <v/>
-      </c>
-      <c r="C13" s="5">
-        <v>3169</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="13.5" spans="1:3">
       <c r="A14" s="5"/>
@@ -2977,7 +2916,7 @@
     <row r="35" ht="13.5"/>
     <row r="36" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="I1bEIUxSEn6fmuHFogUIgZhXCU7RLeiz/NXMQRFyzawXKejFHH7obFroIFljWw+6+xlJJr8k1V9rC4qz2EAgYg==" saltValue="VYkFBUV9jNonpepqQ/x63Q==" spinCount="100000" sheet="1" sort="0" autoFilter="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xDHPvXtNXqbsquY9WE/T9osk44CPVM4pP9XoLYvjZQVgl9Zff73Lux/6fx/CCji1LVa3OZjclTRtAkf42f2SlQ==" saltValue="FO0Gcsk/VHh6qBPbMX4bbg==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:C35" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
@@ -2987,7 +2926,9 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.472222222222222" bottom="1" header="0.314583333333333" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;9第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7MXRHbS5nQytCafyzc+8MoP5nJERj7tWVags7l5iijVgWPTMNRXEw3eHOy+Qd4u0cFet7W4rvaDloYZV7uLRSg==" workbookSaltValue="7tKLOdSHVkU+33jMcgm4Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程量计算底稿" sheetId="1" r:id="rId1"/>
     <sheet name="工程量汇总表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工程量汇总表!$A$2:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工程量汇总表!$A$3:$C$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">工程量计算底稿!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">工程量汇总表!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">工程量汇总表!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -112,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +124,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="4" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="4" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -676,137 +685,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,145 +829,127 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1508,7 +1499,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{AB632926-7CA6-4297-9AD6-1795DCA180CA}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{23214EE8-F6FF-4F75-966F-CD4A0E589904}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1818,736 +1809,736 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.675" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39" style="10" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.2916666666667" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="6.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="10" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.675" style="8" customWidth="1"/>
+    <col min="5" max="5" width="39" style="11" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.2916666666667" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A4" s="23">
-        <f>ROW()-3</f>
+    <row r="4" s="8" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" s="24">
+        <f t="shared" ref="A4:A30" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="str" cm="1">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</f>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="26" t="e">
+        <f ca="1" t="shared" ref="G4:G30" si="1">IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
+      <c r="H4" s="28"/>
+      <c r="I4" s="26" t="str">
+        <f ca="1" t="shared" ref="I4:I30" si="2">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
         <v/>
       </c>
-      <c r="J4" s="42"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="23">
-        <f>ROW()-3</f>
+      <c r="A5" s="24">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="str" cm="1">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F5)=1,EVALUATE(E5),EVALUATE(E5)*F5)</f>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,""),0)</f>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="23">
-        <f>ROW()-3</f>
+      <c r="A6" s="24">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="str" cm="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F6)=1,EVALUATE(E6),EVALUATE(E6)*F6)</f>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,""),0)</f>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="23">
-        <f>ROW()-3</f>
+      <c r="A7" s="24">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="str" cm="1">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F7)=1,EVALUATE(E7),EVALUATE(E7)*F7)</f>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,""),0)</f>
+      <c r="H7" s="28"/>
+      <c r="I7" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="23">
-        <f>ROW()-3</f>
+      <c r="A8" s="24">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="str" cm="1">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F8)=1,EVALUATE(E8),EVALUATE(E8)*F8)</f>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,""),0)</f>
+      <c r="H8" s="28"/>
+      <c r="I8" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="23">
-        <f>ROW()-3</f>
+      <c r="A9" s="24">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="str">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="str">
         <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F9)=1,EVALUATE(E9),EVALUATE(E9)*F9)</f>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,""),0)</f>
+      <c r="H9" s="28"/>
+      <c r="I9" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="23">
-        <f>ROW()-3</f>
+      <c r="A10" s="24">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="str">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26" t="str">
         <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F10)=1,EVALUATE(E10),EVALUATE(E10)*F10)</f>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,""),0)</f>
+      <c r="H10" s="28"/>
+      <c r="I10" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" ht="14.25" spans="1:10">
-      <c r="A11" s="23">
-        <f>ROW()-3</f>
+      <c r="A11" s="24">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="str">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="str">
         <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F11)=1,EVALUATE(E11),EVALUATE(E11)*F11)</f>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,""),0)</f>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" ht="14.25" spans="1:10">
-      <c r="A12" s="23">
-        <f>ROW()-3</f>
+      <c r="A12" s="24">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="str">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26" t="str">
         <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F12)=1,EVALUATE(E12),EVALUATE(E12)*F12)</f>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,""),0)</f>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" ht="14.25" spans="1:10">
-      <c r="A13" s="23">
-        <f>ROW()-3</f>
+      <c r="A13" s="24">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25" t="str" cm="1">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C13">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F13)=1,EVALUATE(E13),EVALUATE(E13)*F13)</f>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,""),0)</f>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="23">
-        <f>ROW()-3</f>
+      <c r="A14" s="24">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="str" cm="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C14">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F14)=1,EVALUATE(E14),EVALUATE(E14)*F14)</f>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,""),0)</f>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="23">
-        <f>ROW()-3</f>
+      <c r="A15" s="24">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="str" cm="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C15">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F15)=1,EVALUATE(E15),EVALUATE(E15)*F15)</f>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,""),0)</f>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="23">
-        <f>ROW()-3</f>
+      <c r="A16" s="24">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="str" cm="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C16">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F16)=1,EVALUATE(E16),EVALUATE(E16)*F16)</f>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,""),0)</f>
+      <c r="H16" s="28"/>
+      <c r="I16" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="42"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" ht="14.25" spans="1:10">
-      <c r="A17" s="23">
-        <f>ROW()-3</f>
+      <c r="A17" s="24">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25" t="str" cm="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C17">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F17)=1,EVALUATE(E17),EVALUATE(E17)*F17)</f>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,""),0)</f>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="42"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" ht="14.25" spans="1:10">
-      <c r="A18" s="23">
-        <f>ROW()-3</f>
+      <c r="A18" s="24">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25" t="str" cm="1">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C18">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F18)=1,EVALUATE(E18),EVALUATE(E18)*F18)</f>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,""),0)</f>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="42"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" ht="14.25" spans="1:10">
-      <c r="A19" s="23">
-        <f>ROW()-3</f>
+      <c r="A19" s="24">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25" t="str" cm="1">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C19">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F19)=1,EVALUATE(E19),EVALUATE(E19)*F19)</f>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,""),0)</f>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="42"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="23">
-        <f>ROW()-3</f>
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25" t="str" cm="1">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C20">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F20)=1,EVALUATE(E20),EVALUATE(E20)*F20)</f>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,""),0)</f>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="42"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" ht="14.25" spans="1:10">
-      <c r="A21" s="23">
-        <f>ROW()-3</f>
+      <c r="A21" s="24">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25" t="str" cm="1">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C21">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F21)=1,EVALUATE(E21),EVALUATE(E21)*F21)</f>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,""),0)</f>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="42"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="23">
-        <f>ROW()-3</f>
+      <c r="A22" s="24">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25" t="str" cm="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C22">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F22)=1,EVALUATE(E22),EVALUATE(E22)*F22)</f>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,""),0)</f>
+      <c r="H22" s="28"/>
+      <c r="I22" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="23">
-        <f>ROW()-3</f>
+      <c r="A23" s="24">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25" t="str" cm="1">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C23">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F23)=1,EVALUATE(E23),EVALUATE(E23)*F23)</f>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,""),0)</f>
+      <c r="H23" s="28"/>
+      <c r="I23" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J23" s="42"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" ht="14.25" spans="1:10">
-      <c r="A24" s="23">
-        <f>ROW()-3</f>
+      <c r="A24" s="24">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25" t="str" cm="1">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C24">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F24)=1,EVALUATE(E24),EVALUATE(E24)*F24)</f>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,""),0)</f>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J24" s="42"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="23">
-        <f>ROW()-3</f>
+      <c r="A25" s="24">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="str" cm="1">
+      <c r="B25" s="25"/>
+      <c r="C25" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C25">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F25)=1,EVALUATE(E25),EVALUATE(E25)*F25)</f>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,""),0)</f>
+      <c r="H25" s="28"/>
+      <c r="I25" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J25" s="42"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" ht="14.25" spans="1:10">
-      <c r="A26" s="23">
-        <f>ROW()-3</f>
+      <c r="A26" s="24">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25" t="str" cm="1">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C26">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F26)=1,EVALUATE(E26),EVALUATE(E26)*F26)</f>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,""),0)</f>
+      <c r="H26" s="28"/>
+      <c r="I26" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J26" s="42"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" ht="14.25" spans="1:10">
-      <c r="A27" s="23">
-        <f>ROW()-3</f>
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25" t="str" cm="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C27">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="25" t="e">
-        <f ca="1">IF(COUNTBLANK(F27)=1,EVALUATE(E27),EVALUATE(E27)*F27)</f>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="26" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="25" t="str">
-        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,""),0)</f>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" s="42"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" ht="14.25" spans="1:10">
-      <c r="A28" s="29">
-        <f>ROW()-3</f>
+      <c r="A28" s="30">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="25" t="str" cm="1">
+      <c r="B28" s="31"/>
+      <c r="C28" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C28">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="31" t="e">
-        <f ca="1">IF(COUNTBLANK(F28)=1,EVALUATE(E28),EVALUATE(E28)*F28)</f>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="32" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="31" t="str">
-        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,""),0)</f>
+      <c r="H28" s="33"/>
+      <c r="I28" s="32" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="29">
-        <f>ROW()-3</f>
+      <c r="A29" s="30">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="25" t="str" cm="1">
+      <c r="B29" s="31"/>
+      <c r="C29" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C29">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31" t="e">
-        <f ca="1">IF(COUNTBLANK(F29)=1,EVALUATE(E29),EVALUATE(E29)*F29)</f>
+      <c r="D29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31" t="str">
-        <f ca="1">IF(ISBLANK(H29),IFERROR(G29,""),0)</f>
+      <c r="H29" s="33"/>
+      <c r="I29" s="32" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" s="43"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="34">
-        <f>ROW()-3</f>
+      <c r="A30" s="30">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="25" t="str" cm="1">
+      <c r="B30" s="31"/>
+      <c r="C30" s="26" t="str" cm="1">
         <f ca="1" t="array" ref="C30">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
         <v>未区分分部</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="37" t="e">
-        <f ca="1">IF(COUNTBLANK(F30)=1,EVALUATE(E30),EVALUATE(E30)*F30)</f>
+      <c r="D30" s="31"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37" t="str">
-        <f ca="1">IF(ISBLANK(H30),IFERROR(G30,""),0)</f>
+      <c r="H30" s="33"/>
+      <c r="I30" s="32" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="44"/>
+      <c r="J30" s="39"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="2ZOHOfSxGwvO9gnaZMnZsy3yhhfCE5sfuCd5XbBSXSQcWmqE3FxSdc8x8k0Z+1G3ZFTItlYqVHiFzZvmcFYQ6Q==" saltValue="fL1hdGJRsEVM4SKLeDHlhA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
@@ -2768,12 +2759,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2791,112 +2782,122 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="str">
+        <f>工程量计算底稿!A2</f>
+        <v>项目名称</v>
+      </c>
+      <c r="B2" s="4" t="str">
+        <f>工程量计算底稿!D2</f>
+        <v>*******工程</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="1:3">
-      <c r="A3" s="5" t="str" cm="1">
-        <f ca="1" t="array" ref="A3:C5">_xlfn.GROUPBY(工程量计算底稿!C4:D1999,工程量计算底稿!I4:I1999,_xleta.sum)</f>
+    <row r="4" ht="13.5" spans="1:3">
+      <c r="A4" s="6" t="str" cm="1">
+        <f ca="1" t="array" ref="A4:C6">_xlfn.GROUPBY(工程量计算底稿!C4:D1999,工程量计算底稿!I4:I1999,_xleta.sum)</f>
         <v>未区分分部</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:3">
-      <c r="A4" s="5">
+    <row r="5" ht="13.5" spans="1:3">
+      <c r="A5" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:3">
-      <c r="A5" s="5" t="str">
+    <row r="6" ht="13.5" spans="1:3">
+      <c r="A6" s="6" t="str">
         <v>总计</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B6" s="6" t="str">
         <v/>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
     <row r="7" ht="13.5" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" ht="13.5" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" ht="13.5" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" ht="13.5" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" ht="13.5" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" ht="13.5" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" ht="13.5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" ht="13.5" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
     <row r="19" ht="13.5"/>
     <row r="20" ht="13.5"/>
     <row r="21" ht="13.5"/>
@@ -2915,13 +2916,15 @@
     <row r="34" ht="13.5"/>
     <row r="35" ht="13.5"/>
     <row r="36" ht="13.5"/>
+    <row r="37" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xDHPvXtNXqbsquY9WE/T9osk44CPVM4pP9XoLYvjZQVgl9Zff73Lux/6fx/CCji1LVa3OZjclTRtAkf42f2SlQ==" saltValue="FO0Gcsk/VHh6qBPbMX4bbg==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:C35" etc:filterBottomFollowUsedRange="0">
+  <sheetProtection algorithmName="SHA-512" hashValue="/dpttPsPLK4uApO841g4w5ECREX4HYp2T6wvHcMwuIMsKmB3ZCFnQfUzRt06hHOb7WTbqqOf6FH9VV8E3QFoMg==" saltValue="60ID+fMuTmqV6fRuMEctzQ==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:C36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.472222222222222" bottom="1" header="0.314583333333333" footer="0.5"/>

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7MXRHbS5nQytCafyzc+8MoP5nJERj7tWVags7l5iijVgWPTMNRXEw3eHOy+Qd4u0cFet7W4rvaDloYZV7uLRSg==" workbookSaltValue="7tKLOdSHVkU+33jMcgm4Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="工程量计算底稿" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -64,7 +64,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>*******工程</t>
+    <t>给排水工程</t>
   </si>
   <si>
     <t>序号</t>
@@ -95,6 +95,99 @@
   </si>
   <si>
     <t>说明</t>
+  </si>
+  <si>
+    <t>卫生洁具</t>
+  </si>
+  <si>
+    <t>1层</t>
+  </si>
+  <si>
+    <t>坐便器</t>
+  </si>
+  <si>
+    <t>2+3+6</t>
+  </si>
+  <si>
+    <t>小便器</t>
+  </si>
+  <si>
+    <t>10+5</t>
+  </si>
+  <si>
+    <t>地漏</t>
+  </si>
+  <si>
+    <t>清扫口</t>
+  </si>
+  <si>
+    <t>4+5+6</t>
+  </si>
+  <si>
+    <t>洗脸盆</t>
+  </si>
+  <si>
+    <t>4+5+6+2</t>
+  </si>
+  <si>
+    <t>2-10层</t>
+  </si>
+  <si>
+    <t>25+3</t>
+  </si>
+  <si>
+    <t>淋浴器</t>
+  </si>
+  <si>
+    <t>12+5</t>
+  </si>
+  <si>
+    <t>21+3</t>
+  </si>
+  <si>
+    <t>14+6</t>
+  </si>
+  <si>
+    <t>23+6</t>
+  </si>
+  <si>
+    <t>17+6</t>
+  </si>
+  <si>
+    <t>给水管道</t>
+  </si>
+  <si>
+    <t>PPR100</t>
+  </si>
+  <si>
+    <t>5.6+6.5+8.9+5.7</t>
+  </si>
+  <si>
+    <t>PPR80</t>
+  </si>
+  <si>
+    <t>4.2+6.5+2.3+8.9</t>
+  </si>
+  <si>
+    <t>PPR50</t>
+  </si>
+  <si>
+    <t>3.6+45+2.6+5.8</t>
+  </si>
+  <si>
+    <t>7+4.5+8.9</t>
+  </si>
+  <si>
+    <t>8+8.9+5.7</t>
+  </si>
+  <si>
+    <t>PPr40</t>
+  </si>
+  <si>
+    <t>12+56</t>
+  </si>
+  <si>
+    <t>PPR32</t>
   </si>
   <si>
     <t>工 程 量 汇 总 表</t>
@@ -113,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +240,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -189,12 +289,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -685,137 +785,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,57 +943,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -906,42 +1009,42 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -949,7 +1052,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1016,7 +1119,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1049,7 +1152,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1082,7 +1185,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1116,7 +1219,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1149,7 +1252,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1182,7 +1285,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1215,7 +1318,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1249,7 +1352,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1283,7 +1386,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1317,7 +1420,7 @@
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1499,7 +1602,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{23214EE8-F6FF-4F75-966F-CD4A0E589904}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{F29E8DB4-EA59-4027-BA0E-89D5ACD499AD}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1524,7 +1627,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J31" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -1537,7 +1640,7 @@
     <tableColumn id="5" name="计 算 式" dataDxfId="4"/>
     <tableColumn id="6" name="倍数" dataDxfId="5"/>
     <tableColumn id="7" name="合计1" dataDxfId="6">
-      <calculatedColumnFormula>IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="计/否" dataDxfId="7"/>
     <tableColumn id="9" name="合 计" dataDxfId="8">
@@ -1807,743 +1910,875 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="10" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.675" style="8" customWidth="1"/>
-    <col min="5" max="5" width="39" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="11" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.675" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39" style="12" customWidth="1"/>
     <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.2916666666667" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="7" max="7" width="10.375" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="18.2916666666667" style="14" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="36"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" s="7" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="24">
-        <f t="shared" ref="A4:A30" si="0">ROW()-3</f>
+      <c r="A4" s="25">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26" t="str" cm="1">
+      <c r="B4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="26" t="e">
-        <f ca="1" t="shared" ref="G4:G30" si="1">IF(COUNTBLANK(F4)=1,EVALUATE(E4),EVALUATE(E4)*F4)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27" t="e">
+        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26" t="str">
-        <f ca="1" t="shared" ref="I4:I30" si="2">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
+      <c r="H4" s="29"/>
+      <c r="I4" s="27" t="str">
+        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
         <v/>
       </c>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="24">
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A5" s="25">
+        <f>ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="27">
+        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="27">
+        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,""),0)</f>
+        <v>11</v>
+      </c>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A6" s="25">
+        <f>ROW()-3</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="27">
+        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
+        <v>15</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27">
+        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,""),0)</f>
+        <v>15</v>
+      </c>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A7" s="25">
+        <f>ROW()-3</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27">
+        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27">
+        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,""),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A8" s="25">
+        <f>ROW()-3</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="27">
+        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="27">
+        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,""),0)</f>
+        <v>15</v>
+      </c>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A9" s="25">
+        <f>ROW()-3</f>
+        <v>6</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="27">
+        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
+        <v>17</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27">
+        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,""),0)</f>
+        <v>17</v>
+      </c>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A10" s="25">
+        <f>ROW()-3</f>
+        <v>7</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="27" t="e">
+        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27" t="str">
+        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,""),0)</f>
+        <v/>
+      </c>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A11" s="25">
+        <f>ROW()-3</f>
+        <v>8</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="25">
+        <v>9</v>
+      </c>
+      <c r="G11" s="27">
+        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
+        <v>252</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27">
+        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,""),0)</f>
+        <v>252</v>
+      </c>
+      <c r="J11" s="39"/>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A12" s="25">
+        <f>ROW()-3</f>
+        <v>9</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="25">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27">
+        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
+        <v>153</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27">
+        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,""),0)</f>
+        <v>153</v>
+      </c>
+      <c r="J12" s="39"/>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A13" s="25">
+        <f t="shared" ref="A13:A31" si="0">ROW()-3</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="25">
+        <v>9</v>
+      </c>
+      <c r="G13" s="27">
+        <f ca="1" t="shared" ref="G13:G31" si="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
+        <v>216</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27">
+        <f ca="1" t="shared" ref="I13:I31" si="2">IF(ISBLANK(H13),IFERROR(G13,""),0)</f>
+        <v>216</v>
+      </c>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="26" t="e">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C14">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="25">
+        <v>9</v>
+      </c>
+      <c r="G14" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A15" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C15">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="25">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A16" s="25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C16">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
+        <v>卫生洁具</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="25">
+        <v>9</v>
+      </c>
+      <c r="G16" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A17" s="25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C17">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="26" t="str">
+      <c r="H17" s="29"/>
+      <c r="I17" s="27" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
-      <c r="A6" s="24">
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A18" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="26" t="e">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C18">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>26.7</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>26.7</v>
+      </c>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A19" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C19">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>21.9</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>21.9</v>
+      </c>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A20" s="25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C20">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A21" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C21">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="26" t="str">
+      <c r="H21" s="29"/>
+      <c r="I21" s="27" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
-      <c r="A7" s="24">
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A22" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="26" t="e">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C22">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="25">
+        <v>9</v>
+      </c>
+      <c r="G22" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>183.6</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>183.6</v>
+      </c>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A23" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C23">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="25">
+        <v>9</v>
+      </c>
+      <c r="G23" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>203.4</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>203.4</v>
+      </c>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A24" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C24">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="25">
+        <v>9</v>
+      </c>
+      <c r="G24" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>240.3</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>240.3</v>
+      </c>
+      <c r="J24" s="39"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A25" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C25">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="25">
+        <v>9</v>
+      </c>
+      <c r="G25" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="J25" s="39"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A26" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C26">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="28">
+        <v>23</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27">
+        <f ca="1" t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="27">
+        <f ca="1" t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A27" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C27">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="26" t="str">
+      <c r="H27" s="29"/>
+      <c r="I27" s="27" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
-      <c r="A8" s="24">
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A28" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="26" t="e">
+        <v>25</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C28">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="27" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="26" t="str">
+      <c r="H28" s="29"/>
+      <c r="I28" s="27" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:10">
-      <c r="A9" s="24">
+      <c r="J28" s="39"/>
+    </row>
+    <row r="29" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A29" s="31">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="str">
-        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26" t="e">
+        <v>26</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C29">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="33" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="26" t="str">
+      <c r="H29" s="34"/>
+      <c r="I29" s="33" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="38"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
-      <c r="A10" s="24">
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A30" s="31">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="str">
-        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26" t="e">
+        <v>27</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C30">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="33" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="26" t="str">
+      <c r="H30" s="34"/>
+      <c r="I30" s="33" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="38"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:10">
-      <c r="A11" s="24">
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A31" s="31">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="str">
-        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26" t="e">
+        <v>28</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="27" t="str" cm="1">
+        <f ca="1" t="array" ref="C31">IF(ISBLANK(B31),INDIRECT("C"&amp;ROW()-1),B31)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="33" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="26" t="str">
+      <c r="H31" s="34"/>
+      <c r="I31" s="33" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:10">
-      <c r="A12" s="24">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26" t="str">
-        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="38"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:10">
-      <c r="A13" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C13">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C14">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:10">
-      <c r="A15" s="24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C15">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C16">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:10">
-      <c r="A17" s="24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C17">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:10">
-      <c r="A18" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C18">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:10">
-      <c r="A19" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C19">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:10">
-      <c r="A20" s="24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C20">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:10">
-      <c r="A21" s="24">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C21">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="38"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C22">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="24">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C23">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:10">
-      <c r="A24" s="24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C24">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="I24" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J24" s="38"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C25">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J25" s="38"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:10">
-      <c r="A26" s="24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C26">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J26" s="38"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:10">
-      <c r="A27" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C27">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="26" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="26" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J27" s="38"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:10">
-      <c r="A28" s="30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C28">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="32" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="32" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C29">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="32" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="26" t="str" cm="1">
-        <f ca="1" t="array" ref="C30">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="32" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="39"/>
+      <c r="J31" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2ZOHOfSxGwvO9gnaZMnZsy3yhhfCE5sfuCd5XbBSXSQcWmqE3FxSdc8x8k0Z+1G3ZFTItlYqVHiFzZvmcFYQ6Q==" saltValue="fL1hdGJRsEVM4SKLeDHlhA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FfwtpSeSy5KRXCvsUP5KEka+u0UHyTgqFDbHcOeYq3g4LZP9VtQMqe4njJ+4zELFVdrL7oKaJXOUqmd85QsgHQ==" saltValue="8sGCDUR1Y8qIX7PVlCCOLQ==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="B4:B1999 D4:D1999 E4:E1999 F4:F1999 H4:H1999 D26 D15:D19 D16" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="B4:B2000 D4:D2000 E4:E2000 F4:F2000 H4:H2000 D27 D16:D20 D17 D11:D16 E17" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -2551,198 +2786,248 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="10" priority="29">
+      <formula>COUNTA($B3:$J31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:J3">
+    <cfRule type="expression" dxfId="10" priority="60">
+      <formula>COUNTA($B3:$J31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="10" priority="143">
+      <formula>COUNTA($B13:$J37)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>COUNTA($B17:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>COUNTA($B17:$J43)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="10" priority="125">
+      <formula>COUNTA($B18:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="10" priority="119">
+      <formula>COUNTA($B19:$J34)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>COUNTA($B20:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>COUNTA($B22:$J39)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>COUNTA($B23:$J38)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>COUNTA($B24:$J39)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="expression" dxfId="10" priority="96">
+      <formula>COUNTA($B24:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E25">
+    <cfRule type="expression" dxfId="10" priority="98">
+      <formula>COUNTA($B25:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="10" priority="107">
+      <formula>COUNTA($B25:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:E26">
+    <cfRule type="expression" dxfId="10" priority="97">
+      <formula>COUNTA($B26:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="10" priority="106">
+      <formula>COUNTA($B26:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>COUNTA($B27:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>COUNTA($B27:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:E28">
+    <cfRule type="expression" dxfId="10" priority="27">
+      <formula>COUNTA($B28:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C12">
+    <cfRule type="expression" dxfId="10" priority="149">
+      <formula>COUNTA($B11:$J36)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C31">
+    <cfRule type="expression" dxfId="10" priority="141">
+      <formula>COUNTA($B14:$J36)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="expression" dxfId="10" priority="150">
+      <formula>COUNTA($B11:$J38)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>COUNTA($B13:$J39)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D16">
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>COUNTA($B15:$J34)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="expression" dxfId="10" priority="42">
+      <formula>COUNTA($B20:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="expression" dxfId="10" priority="23">
-      <formula>COUNTA($B3:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:J3">
+      <formula>COUNTA($B22:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B1048576 A1:J1">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="17">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:J7 C8:C10">
+    <cfRule type="expression" dxfId="10" priority="146">
+      <formula>COUNTA($B4:$J31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B10 D8:F10 H8:H10 J8:J10">
+    <cfRule type="expression" dxfId="10" priority="147">
+      <formula>COUNTA($B8:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G10 I8:I10">
+    <cfRule type="expression" dxfId="10" priority="148">
+      <formula>COUNTA($B8:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12 E11:F12 H11:H12 J11:J12">
+    <cfRule type="expression" dxfId="10" priority="151">
+      <formula>COUNTA($B11:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G12 I11:I12">
+    <cfRule type="expression" dxfId="10" priority="152">
+      <formula>COUNTA($B11:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13 E13:F13 H13 J13">
+    <cfRule type="expression" dxfId="10" priority="144">
+      <formula>COUNTA($B13:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13 I13">
+    <cfRule type="expression" dxfId="10" priority="145">
+      <formula>COUNTA($B13:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15 E14:F15 H14:H15 J14:J15">
+    <cfRule type="expression" dxfId="10" priority="114">
+      <formula>COUNTA($B14:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G15 I14:I15">
+    <cfRule type="expression" dxfId="10" priority="115">
+      <formula>COUNTA($B14:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B18 E16:F16 F17 E18:F18 H16:H24 J16:J18">
+    <cfRule type="expression" dxfId="10" priority="127">
+      <formula>COUNTA($B16:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G18 I16:I18">
+    <cfRule type="expression" dxfId="10" priority="128">
+      <formula>COUNTA($B16:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19 E19:F19 J19">
+    <cfRule type="expression" dxfId="10" priority="117">
+      <formula>COUNTA($B19:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19 I19">
+    <cfRule type="expression" dxfId="10" priority="120">
+      <formula>COUNTA($B19:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21 D21 F20:F21 J20:J21">
+    <cfRule type="expression" dxfId="10" priority="50">
+      <formula>COUNTA($B20:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G23 I20:I23">
+    <cfRule type="expression" dxfId="10" priority="130">
+      <formula>COUNTA($B20:$J29)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B23 F22:F23 J22:J23">
+    <cfRule type="expression" dxfId="10" priority="49">
+      <formula>COUNTA($B22:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24 F24 J24">
     <cfRule type="expression" dxfId="10" priority="54">
-      <formula>COUNTA($B3:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>COUNTA($B16:$J34)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
+      <formula>COUNTA($B24:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24 I24">
     <cfRule type="expression" dxfId="10" priority="113">
-      <formula>COUNTA($B18:$J33)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>COUNTA($B19:$J34)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:E23">
-    <cfRule type="expression" dxfId="10" priority="90">
-      <formula>COUNTA($B23:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E24">
-    <cfRule type="expression" dxfId="10" priority="92">
-      <formula>COUNTA($B24:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="expression" dxfId="10" priority="101">
-      <formula>COUNTA($B24:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="expression" dxfId="10" priority="91">
-      <formula>COUNTA($B25:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="10" priority="100">
-      <formula>COUNTA($B25:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="10" priority="7">
-      <formula>COUNTA($B26:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>COUNTA($B26:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>COUNTA($B27:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="10" priority="137">
-      <formula>COUNTA($B11:$J35)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C30">
-    <cfRule type="expression" dxfId="10" priority="135">
-      <formula>COUNTA($B13:$J35)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E20">
-    <cfRule type="expression" dxfId="10" priority="36">
-      <formula>COUNTA($B19:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1048576 A1:J1">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="11">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J7 C8:C10">
-    <cfRule type="expression" dxfId="10" priority="140">
-      <formula>COUNTA($B4:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 D8:F10 H8:H10 J8:J10">
-    <cfRule type="expression" dxfId="10" priority="141">
-      <formula>COUNTA($B8:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G10 I8:I10">
-    <cfRule type="expression" dxfId="10" priority="142">
-      <formula>COUNTA($B8:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12 D11:F12 H11:H12 J11:J12">
-    <cfRule type="expression" dxfId="10" priority="138">
-      <formula>COUNTA($B11:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12 I11:I12">
-    <cfRule type="expression" dxfId="10" priority="139">
-      <formula>COUNTA($B11:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 D13:F14 H13:H14 J13:J14">
-    <cfRule type="expression" dxfId="10" priority="108">
-      <formula>COUNTA($B13:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G14 I13:I14">
+      <formula>COUNTA($B24:$J32)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25 F25 J25">
+    <cfRule type="expression" dxfId="10" priority="53">
+      <formula>COUNTA($B25:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26 I25:I26">
+    <cfRule type="expression" dxfId="10" priority="136">
+      <formula>COUNTA($B25:$J33)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26 F26 J26">
+    <cfRule type="expression" dxfId="10" priority="83">
+      <formula>COUNTA($B26:$J26)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28 I27:I28">
     <cfRule type="expression" dxfId="10" priority="109">
-      <formula>COUNTA($B13:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17 E15:F17 H15:H23 J15:J17">
-    <cfRule type="expression" dxfId="10" priority="121">
-      <formula>COUNTA($B15:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15 D17">
-    <cfRule type="expression" dxfId="10" priority="119">
-      <formula>COUNTA($B15:$J32)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:G17 I15:I17">
-    <cfRule type="expression" dxfId="10" priority="122">
-      <formula>COUNTA($B15:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 E18:F18 J18">
-    <cfRule type="expression" dxfId="10" priority="111">
-      <formula>COUNTA($B18:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18 I18">
-    <cfRule type="expression" dxfId="10" priority="114">
-      <formula>COUNTA($B18:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B20 D20 F19:F20 J19:J20">
-    <cfRule type="expression" dxfId="10" priority="44">
-      <formula>COUNTA($B19:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G22 I19:I22">
-    <cfRule type="expression" dxfId="10" priority="124">
-      <formula>COUNTA($B19:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B22 F21:F22 J21:J22">
-    <cfRule type="expression" dxfId="10" priority="43">
-      <formula>COUNTA($B21:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:E22">
-    <cfRule type="expression" dxfId="10" priority="17">
-      <formula>COUNTA($B21:$J27)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23 F23 J23">
-    <cfRule type="expression" dxfId="10" priority="48">
-      <formula>COUNTA($B23:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 I23">
-    <cfRule type="expression" dxfId="10" priority="107">
-      <formula>COUNTA($B23:$J31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 F24 J24">
-    <cfRule type="expression" dxfId="10" priority="47">
-      <formula>COUNTA($B24:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25 I24:I25">
-    <cfRule type="expression" dxfId="10" priority="130">
-      <formula>COUNTA($B24:$J32)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25 F25 J25">
-    <cfRule type="expression" dxfId="10" priority="77">
-      <formula>COUNTA($B25:$J25)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26:G27 I26:I27">
-    <cfRule type="expression" dxfId="10" priority="103">
-      <formula>COUNTA($B26:$J39)&gt;0</formula>
+      <formula>COUNTA($B27:$J40)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.432638888888889" bottom="0.432638888888889" header="0.275" footer="0.156944444444444"/>
@@ -2761,10 +3046,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2777,7 +3062,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2789,13 +3074,13 @@
       </c>
       <c r="B2" s="4" t="str">
         <f>工程量计算底稿!D2</f>
-        <v>*******工程</v>
+        <v>给排水工程</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -2804,99 +3089,171 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="1:3">
+    <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C6">_xlfn.GROUPBY(工程量计算底稿!C4:D1999,工程量计算底稿!I4:I1999,_xleta.sum)</f>
-        <v>未区分分部</v>
-      </c>
-      <c r="B4" s="6">
+        <f ca="1" t="array" ref="A4:C18">_xlfn.GROUPBY(工程量计算底稿!C4:D2000,工程量计算底稿!I4:I2000,_xleta.sum)</f>
+        <v>给水管道</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <v>PPR100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>210.3</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:3">
+      <c r="A5" s="6" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <v>PPR32</v>
+      </c>
+      <c r="C5" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:3">
+      <c r="A6" s="6" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <v>PPr40</v>
+      </c>
+      <c r="C6" s="6">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="6" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <v>PPR50</v>
+      </c>
+      <c r="C7" s="6">
+        <v>297.3</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:3">
+      <c r="A8" s="6" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <v>PPR80</v>
+      </c>
+      <c r="C8" s="6">
+        <v>225.3</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:3">
+      <c r="A9" s="6" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:3">
-      <c r="A5" s="6">
+    <row r="10" ht="18" customHeight="1" spans="1:3">
+      <c r="A10" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <v>地漏</v>
+      </c>
+      <c r="C10" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:3">
+      <c r="A11" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <v>淋浴器</v>
+      </c>
+      <c r="C11" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:3">
+      <c r="A12" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <v>清扫口</v>
+      </c>
+      <c r="C12" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:3">
+      <c r="A13" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <v>洗脸盆</v>
+      </c>
+      <c r="C13" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:3">
+      <c r="A14" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <v>小便器</v>
+      </c>
+      <c r="C14" s="6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:3">
+      <c r="A15" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <v>坐便器</v>
+      </c>
+      <c r="C15" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:3">
+      <c r="A16" s="6" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:3">
+      <c r="A17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="13.5" spans="1:3">
-      <c r="A6" s="6" t="str">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:3">
+      <c r="A18" s="6" t="str">
         <v>总计</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B18" s="6" t="str">
         <v/>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" ht="13.5" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="13.5" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="13.5" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" ht="13.5" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" ht="13.5" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" ht="13.5" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" ht="13.5" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" ht="13.5" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6">
+        <v>2697.9</v>
+      </c>
     </row>
     <row r="19" ht="13.5"/>
     <row r="20" ht="13.5"/>

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -206,7 +206,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,12 +290,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -785,137 +779,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,23 +1013,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1049,10 +1026,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1602,7 +1575,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{F29E8DB4-EA59-4027-BA0E-89D5ACD499AD}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{B143664D-9DB3-4AD1-A1E9-B9F92C955711}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1627,7 +1600,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J31" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J28" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -1644,7 +1617,7 @@
     </tableColumn>
     <tableColumn id="8" name="计/否" dataDxfId="7"/>
     <tableColumn id="9" name="合 计" dataDxfId="8">
-      <calculatedColumnFormula>IF(ISBLANK(H4),IFERROR(G4,""),0)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ISBLANK(H4),IFERROR(G4,"")," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="说明" dataDxfId="9"/>
   </tableColumns>
@@ -1910,12 +1883,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1945,7 +1918,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="36"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A2" s="16" t="s">
@@ -1961,7 +1934,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
       <c r="I2" s="20"/>
-      <c r="J2" s="37"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" s="7" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A3" s="22" t="s">
@@ -1991,7 +1964,7 @@
       <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2018,10 +1991,10 @@
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,""),0)</f>
+        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="25">
@@ -2046,10 +2019,10 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="27">
-        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,""),0)</f>
+        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
         <v>11</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A6" s="25">
@@ -2074,10 +2047,10 @@
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="27">
-        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,""),0)</f>
+        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A7" s="25">
@@ -2102,10 +2075,10 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="27">
-        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,""),0)</f>
+        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
         <v>3</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A8" s="25">
@@ -2130,10 +2103,10 @@
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="27">
-        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,""),0)</f>
+        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A9" s="25">
@@ -2158,10 +2131,10 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="27">
-        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,""),0)</f>
+        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
         <v>17</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A10" s="25">
@@ -2184,10 +2157,10 @@
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,""),0)</f>
+        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
         <v/>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A11" s="25">
@@ -2214,10 +2187,10 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="27">
-        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,""),0)</f>
+        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
         <v>252</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="25">
@@ -2244,14 +2217,14 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="27">
-        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,""),0)</f>
+        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
         <v>153</v>
       </c>
-      <c r="J12" s="39"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A13" s="25">
-        <f t="shared" ref="A13:A31" si="0">ROW()-3</f>
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
       <c r="B13" s="26"/>
@@ -2269,19 +2242,19 @@
         <v>9</v>
       </c>
       <c r="G13" s="27">
-        <f ca="1" t="shared" ref="G13:G31" si="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
+        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
         <v>216</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="27">
-        <f ca="1" t="shared" ref="I13:I31" si="2">IF(ISBLANK(H13),IFERROR(G13,""),0)</f>
+        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
         <v>216</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="34"/>
     </row>
     <row r="14" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A14" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
       <c r="B14" s="26"/>
@@ -2299,19 +2272,19 @@
         <v>9</v>
       </c>
       <c r="G14" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
         <v>180</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
         <v>180</v>
       </c>
-      <c r="J14" s="39"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A15" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
       <c r="B15" s="26"/>
@@ -2329,19 +2302,19 @@
         <v>9</v>
       </c>
       <c r="G15" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
         <v>261</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
         <v>261</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A16" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
       <c r="B16" s="26"/>
@@ -2359,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="G16" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
         <v>207</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
         <v>207</v>
       </c>
-      <c r="J16" s="39"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A17" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -2387,19 +2360,19 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
         <v/>
       </c>
-      <c r="J17" s="39"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A18" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
       <c r="B18" s="26"/>
@@ -2415,19 +2388,19 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
         <v>26.7</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
         <v>26.7</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A19" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
       <c r="B19" s="26"/>
@@ -2443,19 +2416,19 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
         <v>21.9</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
         <v>21.9</v>
       </c>
-      <c r="J19" s="39"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A20" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
       <c r="B20" s="26"/>
@@ -2471,19 +2444,19 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
         <v>57</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
         <v>57</v>
       </c>
-      <c r="J20" s="39"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A21" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
       <c r="B21" s="26"/>
@@ -2497,19 +2470,19 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
         <v/>
       </c>
-      <c r="J21" s="39"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A22" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
       <c r="B22" s="26"/>
@@ -2527,19 +2500,19 @@
         <v>9</v>
       </c>
       <c r="G22" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
         <v>183.6</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
         <v>183.6</v>
       </c>
-      <c r="J22" s="39"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A23" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
       <c r="B23" s="26"/>
@@ -2557,19 +2530,19 @@
         <v>9</v>
       </c>
       <c r="G23" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
         <v>203.4</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
         <v>203.4</v>
       </c>
-      <c r="J23" s="39"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A24" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
       <c r="B24" s="26"/>
@@ -2587,19 +2560,19 @@
         <v>9</v>
       </c>
       <c r="G24" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
         <v>240.3</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
         <v>240.3</v>
       </c>
-      <c r="J24" s="39"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A25" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>22</v>
       </c>
       <c r="B25" s="26"/>
@@ -2617,19 +2590,19 @@
         <v>9</v>
       </c>
       <c r="G25" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
         <v>612</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
         <v>612</v>
       </c>
-      <c r="J25" s="39"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A26" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
       <c r="B26" s="26"/>
@@ -2645,19 +2618,19 @@
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="27">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
         <v>23</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="27">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
         <v>23</v>
       </c>
-      <c r="J26" s="39"/>
+      <c r="J26" s="34"/>
     </row>
     <row r="27" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A27" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
       <c r="B27" s="26"/>
@@ -2669,19 +2642,19 @@
       <c r="E27" s="28"/>
       <c r="F27" s="25"/>
       <c r="G27" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
         <v/>
       </c>
-      <c r="J27" s="39"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A28" s="25">
-        <f t="shared" si="0"/>
+        <f>ROW()-3</f>
         <v>25</v>
       </c>
       <c r="B28" s="26"/>
@@ -2693,92 +2666,20 @@
       <c r="E28" s="28"/>
       <c r="F28" s="30"/>
       <c r="G28" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">IF(ISBLANK(F28),EVALUATE(E28),EVALUATE(E28)*F28)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,"")," ")</f>
         <v/>
       </c>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="29" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A29" s="31">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C29">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
-        <v>给水管道</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="33" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="33" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A30" s="31">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C30">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
-        <v>给水管道</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="33" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A31" s="31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C31">IF(ISBLANK(B31),INDIRECT("C"&amp;ROW()-1),B31)</f>
-        <v>给水管道</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="33" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="33" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J31" s="40"/>
+      <c r="J28" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FfwtpSeSy5KRXCvsUP5KEka+u0UHyTgqFDbHcOeYq3g4LZP9VtQMqe4njJ+4zELFVdrL7oKaJXOUqmd85QsgHQ==" saltValue="8sGCDUR1Y8qIX7PVlCCOLQ==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <protectedRanges>
-    <protectedRange sqref="B4:B2000 D4:D2000 E4:E2000 F4:F2000 H4:H2000 D27 D16:D20 D17 D11:D16 E17" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="B4:B1996 D4:D1996 E4:E1996 F4:F1996 H4:H1996 D27 D16:D20 D17 D11:D16 E17" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -2787,57 +2688,72 @@
   </mergeCells>
   <conditionalFormatting sqref="A3">
     <cfRule type="expression" dxfId="10" priority="29">
-      <formula>COUNTA($B3:$J31)&gt;0</formula>
+      <formula>COUNTA($B3:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:J3">
     <cfRule type="expression" dxfId="10" priority="60">
-      <formula>COUNTA($B3:$J31)&gt;0</formula>
+      <formula>COUNTA($B3:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
     <cfRule type="expression" dxfId="10" priority="143">
-      <formula>COUNTA($B13:$J37)&gt;0</formula>
+      <formula>COUNTA($B13:$J33)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="10" priority="7">
-      <formula>COUNTA($B17:$J35)&gt;0</formula>
+      <formula>COUNTA($B17:$J31)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
     <cfRule type="expression" dxfId="10" priority="4">
-      <formula>COUNTA($B17:$J43)&gt;0</formula>
+      <formula>COUNTA($B17:$J39)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
     <cfRule type="expression" dxfId="10" priority="125">
-      <formula>COUNTA($B18:$J35)&gt;0</formula>
+      <formula>COUNTA($B18:$J31)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
     <cfRule type="expression" dxfId="10" priority="119">
-      <formula>COUNTA($B19:$J34)&gt;0</formula>
+      <formula>COUNTA($B19:$J30)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="10" priority="166">
+      <formula>COUNTA($B19:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
     <cfRule type="expression" dxfId="10" priority="8">
-      <formula>COUNTA($B20:$J35)&gt;0</formula>
+      <formula>COUNTA($B20:$J31)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
     <cfRule type="expression" dxfId="10" priority="3">
-      <formula>COUNTA($B22:$J39)&gt;0</formula>
+      <formula>COUNTA($B22:$J35)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="expression" dxfId="10" priority="23">
+      <formula>COUNTA($B22:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
     <cfRule type="expression" dxfId="10" priority="2">
-      <formula>COUNTA($B23:$J38)&gt;0</formula>
+      <formula>COUNTA($B23:$J34)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="expression" dxfId="10" priority="154">
+      <formula>COUNTA($B23:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
     <cfRule type="expression" dxfId="10" priority="1">
-      <formula>COUNTA($B24:$J39)&gt;0</formula>
+      <formula>COUNTA($B24:$J35)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
@@ -2880,29 +2796,34 @@
       <formula>COUNTA($B28:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="expression" dxfId="10" priority="146">
+      <formula>COUNTA($B8:$J31)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
     <cfRule type="expression" dxfId="10" priority="149">
-      <formula>COUNTA($B11:$J36)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C31">
+      <formula>COUNTA($B11:$J32)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C28">
     <cfRule type="expression" dxfId="10" priority="141">
-      <formula>COUNTA($B14:$J36)&gt;0</formula>
+      <formula>COUNTA($B14:$J32)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
     <cfRule type="expression" dxfId="10" priority="150">
-      <formula>COUNTA($B11:$J38)&gt;0</formula>
+      <formula>COUNTA($B11:$J34)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
     <cfRule type="expression" dxfId="10" priority="5">
-      <formula>COUNTA($B13:$J39)&gt;0</formula>
+      <formula>COUNTA($B13:$J35)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D16">
     <cfRule type="expression" dxfId="10" priority="6">
-      <formula>COUNTA($B15:$J34)&gt;0</formula>
+      <formula>COUNTA($B15:$J30)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
@@ -2910,9 +2831,9 @@
       <formula>COUNTA($B20:$J26)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="expression" dxfId="10" priority="23">
-      <formula>COUNTA($B22:$J28)&gt;0</formula>
+  <conditionalFormatting sqref="H20:H24">
+    <cfRule type="expression" dxfId="10" priority="165">
+      <formula>COUNTA($B20:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 A1:J1">
@@ -2920,69 +2841,129 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:J7 C8:C10">
-    <cfRule type="expression" dxfId="10" priority="146">
-      <formula>COUNTA($B4:$J31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B10 D8:F10 H8:H10 J8:J10">
+  <conditionalFormatting sqref="B4:J7">
+    <cfRule type="expression" dxfId="10" priority="153">
+      <formula>COUNTA($B4:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8 D8:F8 H8 J8">
     <cfRule type="expression" dxfId="10" priority="147">
       <formula>COUNTA($B8:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G10 I8:I10">
+  <conditionalFormatting sqref="G8 I8">
     <cfRule type="expression" dxfId="10" priority="148">
       <formula>COUNTA($B8:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B12 E11:F12 H11:H12 J11:J12">
+  <conditionalFormatting sqref="B9 D9:F9 H9 J9">
+    <cfRule type="expression" dxfId="10" priority="155">
+      <formula>COUNTA($B9:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9 I9">
+    <cfRule type="expression" dxfId="10" priority="157">
+      <formula>COUNTA($B9:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10 D10:F10 H10 J10">
+    <cfRule type="expression" dxfId="10" priority="156">
+      <formula>COUNTA($B10:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10 I10">
+    <cfRule type="expression" dxfId="10" priority="158">
+      <formula>COUNTA($B10:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11 E11:F11 H11 J11">
     <cfRule type="expression" dxfId="10" priority="151">
-      <formula>COUNTA($B11:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G12 I11:I12">
+      <formula>COUNTA($B11:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11 I11">
     <cfRule type="expression" dxfId="10" priority="152">
-      <formula>COUNTA($B11:$J29)&gt;0</formula>
+      <formula>COUNTA($B11:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12 E12:F12 H12 J12">
+    <cfRule type="expression" dxfId="10" priority="159">
+      <formula>COUNTA($B12:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12 I12">
+    <cfRule type="expression" dxfId="10" priority="160">
+      <formula>COUNTA($B12:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 E13:F13 H13 J13">
     <cfRule type="expression" dxfId="10" priority="144">
-      <formula>COUNTA($B13:$J30)&gt;0</formula>
+      <formula>COUNTA($B13:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13 I13">
     <cfRule type="expression" dxfId="10" priority="145">
-      <formula>COUNTA($B13:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B15 E14:F15 H14:H15 J14:J15">
+      <formula>COUNTA($B13:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14 E14:F14 H14 J14">
     <cfRule type="expression" dxfId="10" priority="114">
-      <formula>COUNTA($B14:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15 I14:I15">
+      <formula>COUNTA($B14:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14 I14">
     <cfRule type="expression" dxfId="10" priority="115">
-      <formula>COUNTA($B14:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B18 E16:F16 F17 E18:F18 H16:H24 J16:J18">
+      <formula>COUNTA($B14:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 E15:F15 H15 J15">
+    <cfRule type="expression" dxfId="10" priority="161">
+      <formula>COUNTA($B15:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15 I15">
+    <cfRule type="expression" dxfId="10" priority="162">
+      <formula>COUNTA($B15:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16 E16:F16 H16 J16">
     <cfRule type="expression" dxfId="10" priority="127">
       <formula>COUNTA($B16:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G18 I16:I18">
+  <conditionalFormatting sqref="G16 I16">
     <cfRule type="expression" dxfId="10" priority="128">
       <formula>COUNTA($B16:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B17 F17 H17 J17">
+    <cfRule type="expression" dxfId="10" priority="163">
+      <formula>COUNTA($B17:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17 I17">
+    <cfRule type="expression" dxfId="10" priority="167">
+      <formula>COUNTA($B17:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 E18:F18 H18 J18">
+    <cfRule type="expression" dxfId="10" priority="164">
+      <formula>COUNTA($B18:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 I18">
+    <cfRule type="expression" dxfId="10" priority="168">
+      <formula>COUNTA($B18:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B19 E19:F19 J19">
     <cfRule type="expression" dxfId="10" priority="117">
-      <formula>COUNTA($B19:$J29)&gt;0</formula>
+      <formula>COUNTA($B19:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19 I19">
     <cfRule type="expression" dxfId="10" priority="120">
-      <formula>COUNTA($B19:$J29)&gt;0</formula>
+      <formula>COUNTA($B19:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21 D21 F20:F21 J20:J21">
@@ -2990,9 +2971,14 @@
       <formula>COUNTA($B20:$J26)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:G23 I20:I23">
+  <conditionalFormatting sqref="G20 I20">
     <cfRule type="expression" dxfId="10" priority="130">
-      <formula>COUNTA($B20:$J29)&gt;0</formula>
+      <formula>COUNTA($B20:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21 I21">
+    <cfRule type="expression" dxfId="10" priority="171">
+      <formula>COUNTA($B21:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B23 F22:F23 J22:J23">
@@ -3000,6 +2986,16 @@
       <formula>COUNTA($B22:$J26)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G22 I22">
+    <cfRule type="expression" dxfId="10" priority="170">
+      <formula>COUNTA($B22:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 I23">
+    <cfRule type="expression" dxfId="10" priority="169">
+      <formula>COUNTA($B23:$J28)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B24 F24 J24">
     <cfRule type="expression" dxfId="10" priority="54">
       <formula>COUNTA($B24:$J26)&gt;0</formula>
@@ -3007,7 +3003,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G24 I24">
     <cfRule type="expression" dxfId="10" priority="113">
-      <formula>COUNTA($B24:$J32)&gt;0</formula>
+      <formula>COUNTA($B24:$J28)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25 F25 J25">
@@ -3017,7 +3013,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:G26 I25:I26">
     <cfRule type="expression" dxfId="10" priority="136">
-      <formula>COUNTA($B25:$J33)&gt;0</formula>
+      <formula>COUNTA($B25:$J29)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26 F26 J26">
@@ -3027,7 +3023,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:G28 I27:I28">
     <cfRule type="expression" dxfId="10" priority="109">
-      <formula>COUNTA($B27:$J40)&gt;0</formula>
+      <formula>COUNTA($B27:$J36)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.432638888888889" bottom="0.432638888888889" header="0.275" footer="0.156944444444444"/>
@@ -3049,7 +3045,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -3091,7 +3087,7 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C18">_xlfn.GROUPBY(工程量计算底稿!C4:D2000,工程量计算底稿!I4:I2000,_xleta.sum)</f>
+        <f ca="1" t="array" ref="A4:C18">_xlfn.GROUPBY(工程量计算底稿!C4:D1996,工程量计算底稿!I4:I1996,_xleta.sum)</f>
         <v>给水管道</v>
       </c>
       <c r="B4" s="6" t="str">

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -1575,7 +1575,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{B143664D-9DB3-4AD1-A1E9-B9F92C955711}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{59B48DB1-1CEC-47F8-85E5-5380FED765BD}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1888,7 +1888,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="4" s="8" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A28" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1986,19 +1986,19 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
+        <f ca="1" t="shared" ref="G4:G28" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
+        <f ca="1" t="shared" ref="I4:I28" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
       <c r="J4" s="34"/>
     </row>
     <row r="5" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="27"/>
@@ -2014,19 +2014,19 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="27">
-        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="27">
-        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J5" s="34"/>
     </row>
     <row r="6" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A6" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="27"/>
@@ -2042,19 +2042,19 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="27">
-        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="27">
-        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J6" s="34"/>
     </row>
     <row r="7" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A7" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="27"/>
@@ -2070,19 +2070,19 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="27">
-        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="27">
-        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J7" s="34"/>
     </row>
     <row r="8" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A8" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="26"/>
@@ -2098,19 +2098,19 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="27">
-        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="27">
-        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J8" s="34"/>
     </row>
     <row r="9" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A9" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="26"/>
@@ -2126,19 +2126,19 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="27">
-        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="27">
-        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J9" s="34"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A10" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="26"/>
@@ -2152,19 +2152,19 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" s="34"/>
     </row>
     <row r="11" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A11" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="26"/>
@@ -2182,19 +2182,19 @@
         <v>9</v>
       </c>
       <c r="G11" s="27">
-        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="27">
-        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="J11" s="34"/>
     </row>
     <row r="12" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="26"/>
@@ -2212,19 +2212,19 @@
         <v>9</v>
       </c>
       <c r="G12" s="27">
-        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="27">
-        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="J12" s="34"/>
     </row>
     <row r="13" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A13" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="26"/>
@@ -2242,19 +2242,19 @@
         <v>9</v>
       </c>
       <c r="G13" s="27">
-        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="27">
-        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="J13" s="34"/>
     </row>
     <row r="14" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A14" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="26"/>
@@ -2272,19 +2272,19 @@
         <v>9</v>
       </c>
       <c r="G14" s="27">
-        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="27">
-        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="J14" s="34"/>
     </row>
     <row r="15" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A15" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="26"/>
@@ -2302,19 +2302,19 @@
         <v>9</v>
       </c>
       <c r="G15" s="27">
-        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="27">
-        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>261</v>
       </c>
       <c r="J15" s="34"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A16" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="26"/>
@@ -2332,19 +2332,19 @@
         <v>9</v>
       </c>
       <c r="G16" s="27">
-        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="27">
-        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J16" s="34"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A17" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -2360,19 +2360,19 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J17" s="34"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A18" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="26"/>
@@ -2388,19 +2388,19 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="27">
-        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>26.7</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="27">
-        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>26.7</v>
       </c>
       <c r="J18" s="34"/>
     </row>
     <row r="19" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A19" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="26"/>
@@ -2416,19 +2416,19 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="27">
-        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>21.9</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="27">
-        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>21.9</v>
       </c>
       <c r="J19" s="34"/>
     </row>
     <row r="20" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A20" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="26"/>
@@ -2444,19 +2444,19 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="27">
-        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="27">
-        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="J20" s="34"/>
     </row>
     <row r="21" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A21" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="26"/>
@@ -2470,19 +2470,19 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J21" s="34"/>
     </row>
     <row r="22" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A22" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="26"/>
@@ -2500,19 +2500,19 @@
         <v>9</v>
       </c>
       <c r="G22" s="27">
-        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>183.6</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="27">
-        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>183.6</v>
       </c>
       <c r="J22" s="34"/>
     </row>
     <row r="23" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A23" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="26"/>
@@ -2530,19 +2530,19 @@
         <v>9</v>
       </c>
       <c r="G23" s="27">
-        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>203.4</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="27">
-        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>203.4</v>
       </c>
       <c r="J23" s="34"/>
     </row>
     <row r="24" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A24" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="26"/>
@@ -2560,19 +2560,19 @@
         <v>9</v>
       </c>
       <c r="G24" s="27">
-        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>240.3</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="27">
-        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>240.3</v>
       </c>
       <c r="J24" s="34"/>
     </row>
     <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A25" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="26"/>
@@ -2590,19 +2590,19 @@
         <v>9</v>
       </c>
       <c r="G25" s="27">
-        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>612</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="27">
-        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>612</v>
       </c>
       <c r="J25" s="34"/>
     </row>
     <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A26" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="26"/>
@@ -2618,19 +2618,19 @@
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="27">
-        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="27">
-        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J26" s="34"/>
     </row>
     <row r="27" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A27" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="26"/>
@@ -2642,19 +2642,19 @@
       <c r="E27" s="28"/>
       <c r="F27" s="25"/>
       <c r="G27" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J27" s="34"/>
     </row>
     <row r="28" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A28" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="26"/>
@@ -2666,18 +2666,18 @@
       <c r="E28" s="28"/>
       <c r="F28" s="30"/>
       <c r="G28" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F28),EVALUATE(E28),EVALUATE(E28)*F28)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="27" t="str">
-        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,"")," ")</f>
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J28" s="34"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zrvLjOixuYRzRRlwPX9uT917rXnTxr/SobjBEvesrR0FIEkaVndeYWpX3tZ775e0CpbnMDvd5Fm4AyR48EivSQ==" saltValue="WdQwZan7MKSRtqOsovqvPA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="B4:B1996 D4:D1996 E4:E1996 F4:F1996 H4:H1996 D27 D16:D20 D17 D11:D16 E17" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -64,7 +64,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>给排水工程</t>
+    <t>***楼给排水工程</t>
   </si>
   <si>
     <t>序号</t>
@@ -94,7 +94,7 @@
     <t>合 计</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>说 明</t>
   </si>
   <si>
     <t>卫生洁具</t>
@@ -181,13 +181,25 @@
     <t>8+8.9+5.7</t>
   </si>
   <si>
-    <t>PPr40</t>
-  </si>
-  <si>
-    <t>12+56</t>
+    <t>PPR40</t>
+  </si>
+  <si>
+    <t>4+5+6+9</t>
   </si>
   <si>
     <t>PPR32</t>
+  </si>
+  <si>
+    <t>1.2+5.6</t>
+  </si>
+  <si>
+    <t>PPR25</t>
+  </si>
+  <si>
+    <t>5.6+6.3</t>
+  </si>
+  <si>
+    <t>排水管道</t>
   </si>
   <si>
     <t>工 程 量 汇 总 表</t>
@@ -206,7 +218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,45 +227,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="4" tint="-0.5"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4" tint="-0.5"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="4" tint="-0.5"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,27 +286,26 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="5" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="5" tint="-0.5"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -438,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,55 +801,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,192 +861,243 @@
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,6 +1184,7 @@
           <color auto="1"/>
         </bottom>
       </border>
+      <protection hidden="1"/>
     </dxf>
     <dxf>
       <font>
@@ -1364,7 +1435,9 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
       </fill>
       <alignment vertical="center" wrapText="1"/>
       <border>
@@ -1575,7 +1648,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{59B48DB1-1CEC-47F8-85E5-5380FED765BD}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{E72730F2-59F5-47FF-B0C0-85E8C4BE6DA2}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1600,7 +1673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J27" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -1619,9 +1692,9 @@
     <tableColumn id="9" name="合 计" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(H4),IFERROR(G4,"")," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="说明" dataDxfId="9"/>
+    <tableColumn id="10" name="说 明" dataDxfId="9"/>
   </tableColumns>
-  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="表样式 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1883,30 +1956,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="11" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.675" style="10" customWidth="1"/>
-    <col min="5" max="5" width="39" style="12" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="18.2916666666667" style="14" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="6.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.675" style="13" customWidth="1"/>
+    <col min="5" max="5" width="39" style="14" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="13" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="18.2916666666667" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="34" customHeight="1" spans="1:10">
+    <row r="1" s="9" customFormat="1" ht="34" customHeight="1" spans="1:10">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1918,9 +1991,9 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:10">
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1931,755 +2004,735 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" s="7" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="22" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="25">
-        <f t="shared" ref="A4:A28" si="0">ROW()-3</f>
+    <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A4" s="23">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="str" cm="1">
+      <c r="C4" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27" t="e">
-        <f ca="1" t="shared" ref="G4:G28" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25" t="e">
+        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="27" t="str">
-        <f ca="1" t="shared" ref="I4:I28" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
+      <c r="H4" s="27"/>
+      <c r="I4" s="41" t="str">
+        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
-      <c r="J4" s="34"/>
-    </row>
-    <row r="5" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="25">
-        <f t="shared" si="0"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A5" s="23">
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="str" cm="1">
+      <c r="B5" s="28"/>
+      <c r="C5" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25">
+        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
         <v>11</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="41">
+        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
         <v>11</v>
       </c>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="25">
-        <f t="shared" si="0"/>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A6" s="23">
+        <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27" t="str" cm="1">
+      <c r="B6" s="28"/>
+      <c r="C6" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25">
+        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
         <v>15</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="41">
+        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="34"/>
-    </row>
-    <row r="7" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="25">
-        <f t="shared" si="0"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A7" s="23">
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="str" cm="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25">
+        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="41">
+        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
         <v>3</v>
       </c>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A8" s="23">
+        <f>ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="str" cm="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25">
+        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
         <v>15</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="41">
+        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A9" s="23">
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="str">
         <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25">
+        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
         <v>17</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="41">
+        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
         <v>17</v>
       </c>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A10" s="23">
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27" t="str">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="str">
         <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25" t="e">
+        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="41" t="str">
+        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
         <v/>
       </c>
-      <c r="J10" s="34"/>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A11" s="23">
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="str">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="str">
         <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="27">
         <v>9</v>
       </c>
-      <c r="G11" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G11" s="25">
+        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
         <v>252</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="41">
+        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
         <v>252</v>
       </c>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="25">
-        <f t="shared" si="0"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
+      <c r="A12" s="23">
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="str">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="str">
         <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="27">
         <v>9</v>
       </c>
-      <c r="G12" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G12" s="25">
+        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
         <v>153</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="41">
+        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
         <v>153</v>
       </c>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A13" s="25">
-        <f t="shared" si="0"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="29">
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27" t="str">
+      <c r="B13" s="24"/>
+      <c r="C13" s="30" t="str">
         <f ca="1">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="27">
         <v>9</v>
       </c>
-      <c r="G13" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G13" s="30">
+        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
         <v>216</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="41">
+        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
         <v>216</v>
       </c>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A14" s="25">
-        <f t="shared" si="0"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:10">
+      <c r="A14" s="29">
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C14">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
+      <c r="B14" s="24"/>
+      <c r="C14" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="27">
         <v>9</v>
       </c>
-      <c r="G14" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G14" s="30">
+        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
         <v>180</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="41">
+        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
         <v>180</v>
       </c>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A15" s="25">
-        <f t="shared" si="0"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="29">
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C15">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
+      <c r="B15" s="24"/>
+      <c r="C15" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G15" s="30">
+        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
         <v>261</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="41">
+        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
         <v>261</v>
       </c>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A16" s="25">
-        <f t="shared" si="0"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:10">
+      <c r="A16" s="29">
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C16">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
+      <c r="B16" s="24"/>
+      <c r="C16" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="27">
         <v>9</v>
       </c>
-      <c r="G16" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G16" s="30">
+        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
         <v>207</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="42">
+        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
         <v>207</v>
       </c>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="17" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A17" s="25">
-        <f t="shared" si="0"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="29">
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C17">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
+      <c r="C17" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
         <v>给水管道</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="30" t="e">
+        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="42" t="str">
+        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
         <v/>
       </c>
-      <c r="J17" s="34"/>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A18" s="25">
-        <f t="shared" si="0"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="29">
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C18">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
         <v>给水管道</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="30">
+        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
         <v>26.7</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="42">
+        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
         <v>26.7</v>
       </c>
-      <c r="J18" s="34"/>
-    </row>
-    <row r="19" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A19" s="25">
-        <f t="shared" si="0"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:10">
+      <c r="A19" s="29">
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C19">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
+      <c r="B19" s="33"/>
+      <c r="C19" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
         <v>给水管道</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="30">
+        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
         <v>21.9</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="42">
+        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
         <v>21.9</v>
       </c>
-      <c r="J19" s="34"/>
-    </row>
-    <row r="20" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A20" s="25">
-        <f t="shared" si="0"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:10">
+      <c r="A20" s="29">
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C20">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
+      <c r="B20" s="33"/>
+      <c r="C20" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
         <v>给水管道</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="30">
+        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
         <v>57</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="42">
+        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
         <v>57</v>
       </c>
-      <c r="J20" s="34"/>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A21" s="25">
-        <f t="shared" si="0"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:10">
+      <c r="A21" s="29">
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C21">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
         <v>给水管道</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="30" t="e">
+        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="42" t="str">
+        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
         <v/>
       </c>
-      <c r="J21" s="34"/>
-    </row>
-    <row r="22" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A22" s="25">
-        <f t="shared" si="0"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="29">
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C22">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
         <v>给水管道</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="27">
         <v>9</v>
       </c>
-      <c r="G22" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G22" s="30">
+        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
         <v>183.6</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="42">
+        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
         <v>183.6</v>
       </c>
-      <c r="J22" s="34"/>
-    </row>
-    <row r="23" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A23" s="25">
-        <f t="shared" si="0"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:10">
+      <c r="A23" s="29">
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C23">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30" t="str">
+        <f ca="1">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
         <v>给水管道</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="27">
         <v>9</v>
       </c>
-      <c r="G23" s="27">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G23" s="30">
+        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
         <v>203.4</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="27">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="42">
+        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
         <v>203.4</v>
       </c>
-      <c r="J23" s="34"/>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A24" s="25">
-        <f t="shared" si="0"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:10">
+      <c r="A24" s="32">
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C24">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="str">
+        <f ca="1">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
         <v>给水管道</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="D24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="31">
         <v>9</v>
       </c>
-      <c r="G24" s="27">
-        <f ca="1" t="shared" si="1"/>
-        <v>240.3</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="27">
-        <f ca="1" t="shared" si="2"/>
-        <v>240.3</v>
-      </c>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A25" s="25">
-        <f t="shared" si="0"/>
+      <c r="G24" s="34">
+        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
+        <v>216</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="43">
+        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
+        <v>216</v>
+      </c>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:10">
+      <c r="A25" s="32">
+        <f>ROW()-3</f>
         <v>22</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C25">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="str">
+        <f ca="1">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
         <v>给水管道</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="25">
+      <c r="D25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="31">
         <v>9</v>
       </c>
-      <c r="G25" s="27">
-        <f ca="1" t="shared" si="1"/>
-        <v>612</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="27">
-        <f ca="1" t="shared" si="2"/>
-        <v>612</v>
-      </c>
-      <c r="J25" s="34"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A26" s="25">
-        <f t="shared" si="0"/>
+      <c r="G25" s="34">
+        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
+        <v>61.2</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="43">
+        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
+        <v>61.2</v>
+      </c>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:10">
+      <c r="A26" s="36">
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C26">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38" t="str">
+        <f ca="1">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
         <v>给水管道</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="28">
-        <v>23</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27">
-        <f ca="1" t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="27">
-        <f ca="1" t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="J26" s="34"/>
-    </row>
-    <row r="27" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A27" s="25">
-        <f t="shared" si="0"/>
+      <c r="D26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="40">
+        <v>9</v>
+      </c>
+      <c r="G26" s="38">
+        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
+        <v>107.1</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="44">
+        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
+        <v>107.1</v>
+      </c>
+      <c r="J26" s="37"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:10">
+      <c r="A27" s="36">
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C27">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
-        <v>给水管道</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="B27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="38" t="str">
+        <f ca="1">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
+        <v>排水管道</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="38" t="e">
+        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="44" t="str">
+        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
         <v/>
       </c>
-      <c r="J27" s="34"/>
-    </row>
-    <row r="28" s="8" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A28" s="25">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="str" cm="1">
-        <f ca="1" t="array" ref="C28">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
-        <v>给水管道</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="27" t="e">
-        <f ca="1" t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="27" t="str">
-        <f ca="1" t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J28" s="34"/>
+      <c r="J27" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zrvLjOixuYRzRRlwPX9uT917rXnTxr/SobjBEvesrR0FIEkaVndeYWpX3tZ775e0CpbnMDvd5Fm4AyR48EivSQ==" saltValue="WdQwZan7MKSRtqOsovqvPA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="urq0ChkfIScScwOm8figHfkEMu/90RgAFMIDQs1dcNZn08/up2r+agSxMLh4qNNAzKJafgYU5M50GkN3xJtCsA==" saltValue="hj5WWB6iZ1E5cChcvcIayA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="B4:B1996 D4:D1996 E4:E1996 F4:F1996 H4:H1996 D27 D16:D20 D17 D11:D16 E17" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="B4:B1964 D4:D1964 E4:E1964 F4:F1964 H4:H1964" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
@@ -2687,343 +2740,63 @@
     <mergeCell ref="F2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="10" priority="29">
-      <formula>COUNTA($B3:$J28)&gt;0</formula>
+    <cfRule type="expression" dxfId="10" priority="34">
+      <formula>COUNTA($B3:$J27)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:J3">
-    <cfRule type="expression" dxfId="10" priority="60">
-      <formula>COUNTA($B3:$J28)&gt;0</formula>
+    <cfRule type="expression" dxfId="10" priority="65">
+      <formula>COUNTA($B3:$J27)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="10" priority="143">
-      <formula>COUNTA($B13:$J33)&gt;0</formula>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="10" priority="151">
+      <formula>COUNTA($B8:$J9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="10" priority="7">
-      <formula>COUNTA($B17:$J31)&gt;0</formula>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="10" priority="203">
+      <formula>COUNTA($B13:$J13)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="10" priority="4">
-      <formula>COUNTA($B17:$J39)&gt;0</formula>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="expression" dxfId="10" priority="201">
+      <formula>COUNTA($B9:$J13)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="10" priority="125">
-      <formula>COUNTA($B18:$J31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="10" priority="119">
-      <formula>COUNTA($B19:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="10" priority="166">
-      <formula>COUNTA($B19:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>COUNTA($B20:$J31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>COUNTA($B22:$J35)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="10" priority="23">
-      <formula>COUNTA($B22:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>COUNTA($B23:$J34)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="10" priority="154">
-      <formula>COUNTA($B23:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>COUNTA($B24:$J35)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="10" priority="96">
-      <formula>COUNTA($B24:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25">
-    <cfRule type="expression" dxfId="10" priority="98">
-      <formula>COUNTA($B25:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="expression" dxfId="10" priority="107">
-      <formula>COUNTA($B25:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:E26">
-    <cfRule type="expression" dxfId="10" priority="97">
-      <formula>COUNTA($B26:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="10" priority="106">
-      <formula>COUNTA($B26:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="10" priority="13">
-      <formula>COUNTA($B27:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>COUNTA($B27:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" dxfId="10" priority="27">
-      <formula>COUNTA($B28:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
-    <cfRule type="expression" dxfId="10" priority="146">
-      <formula>COUNTA($B8:$J31)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C12">
-    <cfRule type="expression" dxfId="10" priority="149">
-      <formula>COUNTA($B11:$J32)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C28">
-    <cfRule type="expression" dxfId="10" priority="141">
-      <formula>COUNTA($B14:$J32)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
-    <cfRule type="expression" dxfId="10" priority="150">
-      <formula>COUNTA($B11:$J34)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D14">
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>COUNTA($B13:$J35)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D16">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>COUNTA($B15:$J30)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>COUNTA($B20:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H24">
-    <cfRule type="expression" dxfId="10" priority="165">
-      <formula>COUNTA($B20:$J28)&gt;0</formula>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="expression" dxfId="10" priority="162">
+      <formula>COUNTA($B14:$J16)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576 A1:J1">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="22">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:J7">
-    <cfRule type="expression" dxfId="10" priority="153">
-      <formula>COUNTA($B4:$J28)&gt;0</formula>
+    <cfRule type="expression" dxfId="10" priority="158">
+      <formula>COUNTA($B4:$J27)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 D8:F8 H8 J8">
-    <cfRule type="expression" dxfId="10" priority="147">
-      <formula>COUNTA($B8:$J28)&gt;0</formula>
+    <cfRule type="expression" dxfId="10" priority="152">
+      <formula>COUNTA($B8:$J9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8 I8">
-    <cfRule type="expression" dxfId="10" priority="148">
-      <formula>COUNTA($B8:$J28)&gt;0</formula>
+    <cfRule type="expression" dxfId="10" priority="153">
+      <formula>COUNTA($B8:$J9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9 D9:F9 H9 J9">
-    <cfRule type="expression" dxfId="10" priority="155">
-      <formula>COUNTA($B9:$J28)&gt;0</formula>
+  <conditionalFormatting sqref="B9:B12 D9:F12 H9:H12 J9:J12">
+    <cfRule type="expression" dxfId="10" priority="160">
+      <formula>COUNTA($B9:$J9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9 I9">
-    <cfRule type="expression" dxfId="10" priority="157">
-      <formula>COUNTA($B9:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10 D10:F10 H10 J10">
-    <cfRule type="expression" dxfId="10" priority="156">
-      <formula>COUNTA($B10:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10 I10">
-    <cfRule type="expression" dxfId="10" priority="158">
-      <formula>COUNTA($B10:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11 E11:F11 H11 J11">
-    <cfRule type="expression" dxfId="10" priority="151">
-      <formula>COUNTA($B11:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11 I11">
-    <cfRule type="expression" dxfId="10" priority="152">
-      <formula>COUNTA($B11:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12 E12:F12 H12 J12">
-    <cfRule type="expression" dxfId="10" priority="159">
-      <formula>COUNTA($B12:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12 I12">
-    <cfRule type="expression" dxfId="10" priority="160">
-      <formula>COUNTA($B12:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13 E13:F13 H13 J13">
-    <cfRule type="expression" dxfId="10" priority="144">
-      <formula>COUNTA($B13:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13 I13">
-    <cfRule type="expression" dxfId="10" priority="145">
-      <formula>COUNTA($B13:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14 E14:F14 H14 J14">
-    <cfRule type="expression" dxfId="10" priority="114">
-      <formula>COUNTA($B14:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14 I14">
-    <cfRule type="expression" dxfId="10" priority="115">
-      <formula>COUNTA($B14:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15 E15:F15 H15 J15">
-    <cfRule type="expression" dxfId="10" priority="161">
-      <formula>COUNTA($B15:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15 I15">
-    <cfRule type="expression" dxfId="10" priority="162">
-      <formula>COUNTA($B15:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 E16:F16 H16 J16">
-    <cfRule type="expression" dxfId="10" priority="127">
-      <formula>COUNTA($B16:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16 I16">
-    <cfRule type="expression" dxfId="10" priority="128">
-      <formula>COUNTA($B16:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17 F17 H17 J17">
-    <cfRule type="expression" dxfId="10" priority="163">
-      <formula>COUNTA($B17:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17 I17">
-    <cfRule type="expression" dxfId="10" priority="167">
-      <formula>COUNTA($B17:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18 E18:F18 H18 J18">
-    <cfRule type="expression" dxfId="10" priority="164">
-      <formula>COUNTA($B18:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18 I18">
-    <cfRule type="expression" dxfId="10" priority="168">
-      <formula>COUNTA($B18:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19 E19:F19 J19">
-    <cfRule type="expression" dxfId="10" priority="117">
-      <formula>COUNTA($B19:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19 I19">
-    <cfRule type="expression" dxfId="10" priority="120">
-      <formula>COUNTA($B19:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21 D21 F20:F21 J20:J21">
-    <cfRule type="expression" dxfId="10" priority="50">
-      <formula>COUNTA($B20:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20 I20">
-    <cfRule type="expression" dxfId="10" priority="130">
-      <formula>COUNTA($B20:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21 I21">
-    <cfRule type="expression" dxfId="10" priority="171">
-      <formula>COUNTA($B21:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B23 F22:F23 J22:J23">
-    <cfRule type="expression" dxfId="10" priority="49">
-      <formula>COUNTA($B22:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22 I22">
-    <cfRule type="expression" dxfId="10" priority="170">
-      <formula>COUNTA($B22:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 I23">
-    <cfRule type="expression" dxfId="10" priority="169">
-      <formula>COUNTA($B23:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24 F24 J24">
-    <cfRule type="expression" dxfId="10" priority="54">
-      <formula>COUNTA($B24:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24 I24">
-    <cfRule type="expression" dxfId="10" priority="113">
-      <formula>COUNTA($B24:$J28)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25 F25 J25">
-    <cfRule type="expression" dxfId="10" priority="53">
-      <formula>COUNTA($B25:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G26 I25:I26">
-    <cfRule type="expression" dxfId="10" priority="136">
-      <formula>COUNTA($B25:$J29)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26 F26 J26">
-    <cfRule type="expression" dxfId="10" priority="83">
-      <formula>COUNTA($B26:$J26)&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G28 I27:I28">
-    <cfRule type="expression" dxfId="10" priority="109">
-      <formula>COUNTA($B27:$J36)&gt;0</formula>
+  <conditionalFormatting sqref="G9:G12 I9:I12">
+    <cfRule type="expression" dxfId="10" priority="202">
+      <formula>COUNTA($B9:$J9)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.432638888888889" bottom="0.432638888888889" header="0.275" footer="0.156944444444444"/>
@@ -3045,223 +2818,233 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="26.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="str">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="str">
         <f>工程量计算底稿!A2</f>
         <v>项目名称</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="6" t="str">
         <f>工程量计算底稿!D2</f>
-        <v>给排水工程</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>***楼给排水工程</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C18">_xlfn.GROUPBY(工程量计算底稿!C4:D1996,工程量计算底稿!I4:I1996,_xleta.sum)</f>
+    <row r="4" ht="23" customHeight="1" spans="1:3">
+      <c r="A4" s="8" t="str" cm="1">
+        <f ca="1" t="array" ref="A4:C19">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
         <v>给水管道</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="8" t="str">
         <v>PPR100</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>210.3</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="str">
+    <row r="5" ht="21" customHeight="1" spans="1:3">
+      <c r="A5" s="8" t="str">
         <v>给水管道</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="8" t="str">
+        <v>PPR25</v>
+      </c>
+      <c r="C5" s="8">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:3">
+      <c r="A6" s="8" t="str">
+        <v>给水管道</v>
+      </c>
+      <c r="B6" s="8" t="str">
         <v>PPR32</v>
       </c>
-      <c r="C5" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="str">
+      <c r="C6" s="8">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:3">
+      <c r="A7" s="8" t="str">
         <v>给水管道</v>
       </c>
-      <c r="B6" s="6" t="str">
-        <v>PPr40</v>
-      </c>
-      <c r="C6" s="6">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="str">
+      <c r="B7" s="8" t="str">
+        <v>PPR40</v>
+      </c>
+      <c r="C7" s="8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:3">
+      <c r="A8" s="8" t="str">
         <v>给水管道</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B8" s="8" t="str">
         <v>PPR50</v>
       </c>
-      <c r="C7" s="6">
-        <v>297.3</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="str">
+      <c r="C8" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:3">
+      <c r="A9" s="8" t="str">
         <v>给水管道</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B9" s="8" t="str">
         <v>PPR80</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="8">
         <v>225.3</v>
       </c>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:3">
-      <c r="A9" s="6" t="str">
+    <row r="10" ht="21" customHeight="1" spans="1:3">
+      <c r="A10" s="8" t="str">
         <v>给水管道</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:3">
-      <c r="A10" s="6" t="str">
+    <row r="11" ht="21" customHeight="1" spans="1:3">
+      <c r="A11" s="8" t="str">
+        <v>排水管道</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:3">
+      <c r="A12" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B12" s="8" t="str">
         <v>地漏</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C12" s="8">
         <v>183</v>
       </c>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:3">
-      <c r="A11" s="6" t="str">
+    <row r="13" ht="21" customHeight="1" spans="1:3">
+      <c r="A13" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B13" s="8" t="str">
         <v>淋浴器</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="8">
         <v>153</v>
       </c>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:3">
-      <c r="A12" s="6" t="str">
+    <row r="14" ht="21" customHeight="1" spans="1:3">
+      <c r="A14" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B14" s="8" t="str">
         <v>清扫口</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C14" s="8">
         <v>276</v>
       </c>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:3">
-      <c r="A13" s="6" t="str">
+    <row r="15" ht="21" customHeight="1" spans="1:3">
+      <c r="A15" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B15" s="8" t="str">
         <v>洗脸盆</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C15" s="8">
         <v>224</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:3">
-      <c r="A14" s="6" t="str">
+    <row r="16" ht="18" customHeight="1" spans="1:3">
+      <c r="A16" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B16" s="8" t="str">
         <v>小便器</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="8">
         <v>231</v>
       </c>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="6" t="str">
+    <row r="17" ht="18" customHeight="1" spans="1:3">
+      <c r="A17" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B17" s="8" t="str">
         <v>坐便器</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C17" s="8">
         <v>263</v>
       </c>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:3">
-      <c r="A16" s="6" t="str">
+    <row r="18" ht="18" customHeight="1" spans="1:3">
+      <c r="A18" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B18" s="8">
         <v>0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:3">
-      <c r="A17" s="6">
+    <row r="19" ht="18" customHeight="1" spans="1:3">
+      <c r="A19" s="4">
         <v>0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:3">
-      <c r="A18" s="6" t="str">
-        <v>总计</v>
-      </c>
-      <c r="B18" s="6" t="str">
-        <v/>
-      </c>
-      <c r="C18" s="6">
-        <v>2697.9</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5"/>
-    <row r="20" ht="13.5"/>
-    <row r="21" ht="13.5"/>
-    <row r="22" ht="13.5"/>
+    <row r="20" ht="18" customHeight="1"/>
+    <row r="21" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1"/>
     <row r="23" ht="13.5"/>
-    <row r="24" ht="13.5"/>
+    <row r="24" ht="18" customHeight="1"/>
     <row r="25" ht="13.5"/>
-    <row r="26" ht="13.5"/>
+    <row r="26" ht="21" customHeight="1"/>
     <row r="27" ht="13.5"/>
     <row r="28" ht="13.5"/>
-    <row r="29" ht="13.5"/>
+    <row r="29" ht="20" customHeight="1"/>
     <row r="30" ht="13.5"/>
     <row r="31" ht="13.5"/>
     <row r="32" ht="13.5"/>
@@ -3271,7 +3054,7 @@
     <row r="36" ht="13.5"/>
     <row r="37" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/dpttPsPLK4uApO841g4w5ECREX4HYp2T6wvHcMwuIMsKmB3ZCFnQfUzRt06hHOb7WTbqqOf6FH9VV8E3QFoMg==" saltValue="60ID+fMuTmqV6fRuMEctzQ==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BjYWTqg74sr4/1yVCM5bH+/Hz6gRBUKWqHY/NRxPuu1PgM7XuHmnftV6IkbG5GjPHZ1vp8k9EMegOH3Mlfh/vA==" saltValue="bh+qMM/jQsg6RHge0STT1w==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:C36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
@@ -3279,7 +3062,11 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <printOptions gridLines="1"/>
+  <conditionalFormatting sqref="$A3:$XFD1048576">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="1">
+      <formula>LEN(TRIM(A3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="0.472222222222222" bottom="1" header="0.314583333333333" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter>

--- a/img/工程量计算底稿.xlsx
+++ b/img/工程量计算底稿.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>排水管道</t>
+  </si>
+  <si>
+    <t>UPVC100</t>
+  </si>
+  <si>
+    <t>UPVC80</t>
+  </si>
+  <si>
+    <t>45+89</t>
   </si>
   <si>
     <t>工 程 量 汇 总 表</t>
@@ -931,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,7 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -983,6 +991,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,25 +1078,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1090,14 +1088,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1648,7 +1638,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{E72730F2-59F5-47FF-B0C0-85E8C4BE6DA2}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{9A4601F8-6C23-436C-B2E1-982BB881619E}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1673,7 +1663,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J29" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -1956,12 +1946,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1971,766 +1961,822 @@
     <col min="3" max="3" width="9.25" style="13" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="30.675" style="13" customWidth="1"/>
     <col min="5" max="5" width="39" style="14" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="15" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="13" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="16" customWidth="1"/>
     <col min="10" max="10" width="18.2916666666667" style="13" customWidth="1"/>
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="34" customHeight="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" s="10" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="23">
-        <f>ROW()-3</f>
+      <c r="A4" s="25">
+        <f t="shared" ref="A4:A29" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="str" cm="1">
+      <c r="C4" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="25" t="e">
-        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="e">
+        <f ca="1" t="shared" ref="G4:G29" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="41" t="str">
-        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
+      <c r="H4" s="29"/>
+      <c r="I4" s="39" t="str">
+        <f ca="1" t="shared" ref="I4:I29" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="23">
-        <f>ROW()-3</f>
+      <c r="A5" s="25">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="25" t="str" cm="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25">
-        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="41">
-        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
+      <c r="H5" s="29"/>
+      <c r="I5" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="23">
-        <f>ROW()-3</f>
+      <c r="A6" s="25">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="25" t="str" cm="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25">
-        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="41">
-        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
+      <c r="H6" s="29"/>
+      <c r="I6" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="23">
-        <f>ROW()-3</f>
+      <c r="A7" s="25">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="25" t="str" cm="1">
+      <c r="B7" s="30"/>
+      <c r="C7" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>3</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25">
-        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="41">
-        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
+      <c r="H7" s="29"/>
+      <c r="I7" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="23">
-        <f>ROW()-3</f>
+      <c r="A8" s="25">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="str" cm="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25">
-        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="41">
-        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
+      <c r="H8" s="29"/>
+      <c r="I8" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="23">
-        <f>ROW()-3</f>
+      <c r="A9" s="25">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="str">
-        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="str">
+        <f ca="1" t="shared" ref="C9:C29" si="3">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="25">
-        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="41">
-        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
+      <c r="H9" s="29"/>
+      <c r="I9" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="23">
-        <f>ROW()-3</f>
+      <c r="A10" s="25">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="str">
-        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25" t="e">
-        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="41" t="str">
-        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
+      <c r="H10" s="29"/>
+      <c r="I10" s="39" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="23">
-        <f>ROW()-3</f>
+      <c r="A11" s="25">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="str">
-        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="29">
         <v>9</v>
       </c>
-      <c r="G11" s="25">
-        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
+      <c r="G11" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="41">
-        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
+      <c r="H11" s="29"/>
+      <c r="I11" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="23">
-        <f>ROW()-3</f>
+      <c r="A12" s="25">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="str">
-        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="29">
         <v>9</v>
       </c>
-      <c r="G12" s="25">
-        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
+      <c r="G12" s="27">
+        <f ca="1" t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="41">
-        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
+      <c r="H12" s="29"/>
+      <c r="I12" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="29">
-        <f>ROW()-3</f>
+      <c r="A13" s="31">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
+      <c r="B13" s="26"/>
+      <c r="C13" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="29">
         <v>9</v>
       </c>
-      <c r="G13" s="30">
-        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
+      <c r="G13" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="41">
-        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
+      <c r="H13" s="33"/>
+      <c r="I13" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="J13" s="33"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="29">
-        <f>ROW()-3</f>
+      <c r="A14" s="31">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
+      <c r="B14" s="26"/>
+      <c r="C14" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="30">
-        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
+      <c r="G14" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="41">
-        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
+      <c r="H14" s="34"/>
+      <c r="I14" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="29">
-        <f>ROW()-3</f>
+      <c r="A15" s="31">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="29">
         <v>9</v>
       </c>
-      <c r="G15" s="30">
-        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
+      <c r="G15" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="41">
-        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
+      <c r="H15" s="34"/>
+      <c r="I15" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="29">
-        <f>ROW()-3</f>
+      <c r="A16" s="31">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
+      <c r="B16" s="26"/>
+      <c r="C16" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="29">
         <v>9</v>
       </c>
-      <c r="G16" s="30">
-        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
+      <c r="G16" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="42">
-        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
+      <c r="H16" s="34"/>
+      <c r="I16" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="J16" s="33"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="29">
-        <f>ROW()-3</f>
+      <c r="A17" s="31">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
+      <c r="C17" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="30" t="e">
-        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
+      <c r="F17" s="29"/>
+      <c r="G17" s="32" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="42" t="str">
-        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
+      <c r="H17" s="34"/>
+      <c r="I17" s="40" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="33"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="29">
-        <f>ROW()-3</f>
+      <c r="A18" s="31">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="30">
-        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
+      <c r="F18" s="29"/>
+      <c r="G18" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>26.7</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="42">
-        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
+      <c r="H18" s="34"/>
+      <c r="I18" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>26.7</v>
       </c>
-      <c r="J18" s="33"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="29">
-        <f>ROW()-3</f>
+      <c r="A19" s="31">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="30">
-        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
+      <c r="F19" s="29"/>
+      <c r="G19" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>21.9</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="42">
-        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
+      <c r="H19" s="34"/>
+      <c r="I19" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>21.9</v>
       </c>
-      <c r="J19" s="33"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="29">
-        <f>ROW()-3</f>
+      <c r="A20" s="31">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30">
-        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="42">
-        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
+      <c r="H20" s="34"/>
+      <c r="I20" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J20" s="33"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="29">
-        <f>ROW()-3</f>
+      <c r="A21" s="31">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
+      <c r="B21" s="35"/>
+      <c r="C21" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="30" t="e">
-        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="42" t="str">
-        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
+      <c r="H21" s="34"/>
+      <c r="I21" s="40" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="33"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="29">
-        <f>ROW()-3</f>
+      <c r="A22" s="31">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="29">
         <v>9</v>
       </c>
-      <c r="G22" s="30">
-        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
+      <c r="G22" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>183.6</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="42">
-        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
+      <c r="H22" s="34"/>
+      <c r="I22" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>183.6</v>
       </c>
-      <c r="J22" s="33"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="29">
-        <f>ROW()-3</f>
+      <c r="A23" s="31">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30" t="str">
-        <f ca="1">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="29">
         <v>9</v>
       </c>
-      <c r="G23" s="30">
-        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
+      <c r="G23" s="32">
+        <f ca="1" t="shared" si="1"/>
         <v>203.4</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="42">
-        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
+      <c r="H23" s="34"/>
+      <c r="I23" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>203.4</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="32">
-        <f>ROW()-3</f>
+      <c r="A24" s="31">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="str">
-        <f ca="1">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="33">
         <v>9</v>
       </c>
-      <c r="G24" s="34">
-        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
+      <c r="G24" s="36">
+        <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="43">
-        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
+      <c r="H24" s="34"/>
+      <c r="I24" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="J24" s="33"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="32">
-        <f>ROW()-3</f>
+      <c r="A25" s="31">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="str">
-        <f ca="1">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="33">
         <v>9</v>
       </c>
-      <c r="G25" s="34">
-        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
+      <c r="G25" s="36">
+        <f ca="1" t="shared" si="1"/>
         <v>61.2</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="43">
-        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
+      <c r="H25" s="34"/>
+      <c r="I25" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>61.2</v>
       </c>
-      <c r="J25" s="33"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="36">
-        <f>ROW()-3</f>
+      <c r="A26" s="31">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38" t="str">
-        <f ca="1">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="33">
         <v>9</v>
       </c>
-      <c r="G26" s="38">
-        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
+      <c r="G26" s="36">
+        <f ca="1" t="shared" si="1"/>
         <v>107.1</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="44">
-        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
+      <c r="H26" s="34"/>
+      <c r="I26" s="40">
+        <f ca="1" t="shared" si="2"/>
         <v>107.1</v>
       </c>
-      <c r="J26" s="37"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="36">
-        <f>ROW()-3</f>
+      <c r="A27" s="31">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="38" t="str">
-        <f ca="1">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
+      <c r="C27" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="38" t="e">
-        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
+      <c r="D27" s="35"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="36" t="e">
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="44" t="str">
-        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
+      <c r="H27" s="34"/>
+      <c r="I27" s="40" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" s="37"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:10">
+      <c r="A28" s="31">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>排水管道</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="37">
+        <v>56</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="36">
+        <f ca="1" t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="40">
+        <f ca="1" t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:10">
+      <c r="A29" s="31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
+        <v>排水管道</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="36">
+        <f ca="1" t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="40">
+        <f ca="1" t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="J29" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="urq0ChkfIScScwOm8figHfkEMu/90RgAFMIDQs1dcNZn08/up2r+agSxMLh4qNNAzKJafgYU5M50GkN3xJtCsA==" saltValue="hj5WWB6iZ1E5cChcvcIayA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PJ404qI0o12kkEBef+5+gduTiKMSkJXQuaA9/31QSCRNUWlri9kPrXXalkwPkQhKaLOUtYk12SHnT8c1ZUTEsA==" saltValue="gyYqZ4D5LQCQSbxSizrccQ==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="B4:B1964 D4:D1964 E4:E1964 F4:F1964 H4:H1964" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
@@ -2741,12 +2787,12 @@
   </mergeCells>
   <conditionalFormatting sqref="A3">
     <cfRule type="expression" dxfId="10" priority="34">
-      <formula>COUNTA($B3:$J27)&gt;0</formula>
+      <formula>COUNTA($B3:$J29)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:J3">
     <cfRule type="expression" dxfId="10" priority="65">
-      <formula>COUNTA($B3:$J27)&gt;0</formula>
+      <formula>COUNTA($B3:$J29)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
@@ -2776,7 +2822,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:J7">
     <cfRule type="expression" dxfId="10" priority="158">
-      <formula>COUNTA($B4:$J27)&gt;0</formula>
+      <formula>COUNTA($B4:$J29)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 D8:F8 H8 J8">
@@ -2818,7 +2864,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2831,7 +2877,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2849,7 +2895,7 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2860,7 +2906,7 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:3">
       <c r="A4" s="8" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C19">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
+        <f ca="1" t="array" ref="A4:C21">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
         <v>给水管道</v>
       </c>
       <c r="B4" s="8" t="str">
@@ -2940,33 +2986,33 @@
       <c r="A11" s="8" t="str">
         <v>排水管道</v>
       </c>
-      <c r="B11" s="8">
-        <v>0</v>
+      <c r="B11" s="8" t="str">
+        <v>UPVC100</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="str">
-        <v>卫生洁具</v>
+        <v>排水管道</v>
       </c>
       <c r="B12" s="8" t="str">
-        <v>地漏</v>
+        <v>UPVC80</v>
       </c>
       <c r="C12" s="8">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:3">
       <c r="A13" s="8" t="str">
-        <v>卫生洁具</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <v>淋浴器</v>
+        <v>排水管道</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:3">
@@ -2974,10 +3020,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B14" s="8" t="str">
-        <v>清扫口</v>
+        <v>地漏</v>
       </c>
       <c r="C14" s="8">
-        <v>276</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:3">
@@ -2985,10 +3031,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B15" s="8" t="str">
-        <v>洗脸盆</v>
+        <v>淋浴器</v>
       </c>
       <c r="C15" s="8">
-        <v>224</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:3">
@@ -2996,10 +3042,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B16" s="8" t="str">
-        <v>小便器</v>
+        <v>清扫口</v>
       </c>
       <c r="C16" s="8">
-        <v>231</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:3">
@@ -3007,36 +3053,56 @@
         <v>卫生洁具</v>
       </c>
       <c r="B17" s="8" t="str">
-        <v>坐便器</v>
+        <v>洗脸盆</v>
       </c>
       <c r="C17" s="8">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:3">
       <c r="A18" s="8" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="8" t="str">
+        <v>小便器</v>
+      </c>
+      <c r="C18" s="8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:3">
+      <c r="A19" s="4" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <v>坐便器</v>
+      </c>
+      <c r="C19" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:3">
+      <c r="A20" s="4" t="str">
+        <v>卫生洁具</v>
+      </c>
+      <c r="B20" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="4">
+    <row r="21" ht="18" customHeight="1" spans="1:3">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="18" customHeight="1"/>
-    <row r="21" ht="18" customHeight="1"/>
     <row r="22" ht="18" customHeight="1"/>
     <row r="23" ht="13.5"/>
     <row r="24" ht="18" customHeight="1"/>
